--- a/data/Detombeur_2021/raw/Félix de Tombeur data for AusTraits.xlsx
+++ b/data/Detombeur_2021/raw/Félix de Tombeur data for AusTraits.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A0A06-F29D-4B21-953F-C3BB175500BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939105F4-82BE-4236-8702-5DC03AFC6852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$AA$380</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1125,35 +1128,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="H278" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R300" sqref="R300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.84375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.69140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="40.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="2"/>
-    <col min="15" max="15" width="16.140625" style="1" customWidth="1"/>
-    <col min="16" max="21" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="40.84375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.69140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3828125" style="2"/>
+    <col min="15" max="15" width="16.15234375" style="1" customWidth="1"/>
+    <col min="16" max="21" width="11.3828125" style="2"/>
     <col min="22" max="22" width="14" style="2" customWidth="1"/>
-    <col min="23" max="25" width="11.42578125" style="2"/>
-    <col min="26" max="26" width="38.28515625" style="9" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="2"/>
+    <col min="23" max="25" width="11.3828125" style="2"/>
+    <col min="26" max="26" width="38.3046875" style="9" customWidth="1"/>
+    <col min="27" max="27" width="14.3046875" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="11.3828125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>166</v>
       </c>
@@ -1223,7 +1226,7 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1275,7 +1278,7 @@
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>7.3076923076923081E-2</v>
       </c>
       <c r="Q3" s="17">
-        <v>1.2076923076923076</v>
+        <v>12.076923076923077</v>
       </c>
       <c r="R3" s="17">
         <v>44.230769230769234</v>
@@ -1343,7 +1346,7 @@
         <v>1.6365384615384615</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>0.34205607476635513</v>
       </c>
       <c r="Q4" s="17">
-        <v>3.2523364485981312</v>
+        <v>32.523364485981311</v>
       </c>
       <c r="R4" s="17">
         <v>52.336448598130843</v>
@@ -1411,7 +1414,7 @@
         <v>1.5831775700934578</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>0.166015625</v>
       </c>
       <c r="Q5" s="17">
-        <v>2.36328125</v>
+        <v>23.6328125</v>
       </c>
       <c r="R5" s="17">
         <v>41.015625</v>
@@ -1479,7 +1482,7 @@
         <v>1.318359375</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>0.18913857677902624</v>
       </c>
       <c r="Q6" s="17">
-        <v>1.0823970037453181</v>
+        <v>10.823970037453181</v>
       </c>
       <c r="R6" s="17">
         <v>46.816479400749067</v>
@@ -1547,7 +1550,7 @@
         <v>1.1985018726591761</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>148</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>0.29885057471264365</v>
       </c>
       <c r="Q7" s="17">
-        <v>5.0766283524904212</v>
+        <v>50.76628352490421</v>
       </c>
       <c r="R7" s="17">
         <v>45.977011494252878</v>
@@ -1615,7 +1618,7 @@
         <v>0.52681992337164751</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>148</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>2.0973782771535583</v>
       </c>
       <c r="Q8" s="17">
-        <v>0.94756554307116103</v>
+        <v>9.4756554307116101</v>
       </c>
       <c r="R8" s="17">
         <v>58.052434456928836</v>
@@ -1683,7 +1686,7 @@
         <v>0.65917602996254676</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>148</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>0.33583489681050654</v>
       </c>
       <c r="Q9" s="17">
-        <v>1.876172607879925</v>
+        <v>18.761726078799249</v>
       </c>
       <c r="R9" s="17">
         <v>90.056285178236394</v>
@@ -1751,7 +1754,7 @@
         <v>2.1388367729831144</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>0.34942084942084939</v>
       </c>
       <c r="Q10" s="17">
-        <v>2.2972972972972969</v>
+        <v>22.972972972972968</v>
       </c>
       <c r="R10" s="17">
         <v>81.081081081081081</v>
@@ -1819,7 +1822,7 @@
         <v>0.3571428571428571</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>0.95542635658914732</v>
       </c>
       <c r="Q11" s="17">
-        <v>2.8682170542635657</v>
+        <v>28.682170542635657</v>
       </c>
       <c r="R11" s="17">
         <v>79.457364341085281</v>
@@ -1887,7 +1890,7 @@
         <v>4.612403100775194</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>148</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>0.33267716535433073</v>
       </c>
       <c r="Q12" s="17">
-        <v>0.26771653543307089</v>
+        <v>2.6771653543307088</v>
       </c>
       <c r="R12" s="17">
         <v>49.212598425196852</v>
@@ -1955,7 +1958,7 @@
         <v>0.34055118110236215</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>0.16135084427767354</v>
       </c>
       <c r="Q13" s="17">
-        <v>2.9831144465290809</v>
+        <v>29.831144465290809</v>
       </c>
       <c r="R13" s="17">
         <v>48.780487804878049</v>
@@ -2023,7 +2026,7 @@
         <v>1.5196998123827392</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>148</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>0.1965648854961832</v>
       </c>
       <c r="Q14" s="17">
-        <v>3.0343511450381682</v>
+        <v>30.343511450381683</v>
       </c>
       <c r="R14" s="17">
         <v>74.427480916030532</v>
@@ -2091,7 +2094,7 @@
         <v>0.94847328244274809</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>148</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>0.14792899408284024</v>
       </c>
       <c r="Q15" s="17">
-        <v>1.7455621301775148</v>
+        <v>17.45562130177515</v>
       </c>
       <c r="R15" s="17">
         <v>53.254437869822482</v>
@@ -2159,7 +2162,7 @@
         <v>0.57790927021696248</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>148</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>0.1537037037037037</v>
       </c>
       <c r="Q16" s="17">
-        <v>1.1870370370370369</v>
+        <v>11.870370370370368</v>
       </c>
       <c r="R16" s="17">
         <v>68.518518518518505</v>
@@ -2227,7 +2230,7 @@
         <v>4.1851851851851842</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>0.22307692307692309</v>
       </c>
       <c r="Q17" s="17">
-        <v>2.6346153846153846</v>
+        <v>26.346153846153847</v>
       </c>
       <c r="R17" s="17">
         <v>50</v>
@@ -2295,7 +2298,7 @@
         <v>2.6923076923076925</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>0.19246031746031747</v>
       </c>
       <c r="Q18" s="17">
-        <v>1.0654761904761907</v>
+        <v>10.654761904761907</v>
       </c>
       <c r="R18" s="17">
         <v>39.682539682539684</v>
@@ -2363,7 +2366,7 @@
         <v>0.94246031746031733</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>0.53228962818003911</v>
       </c>
       <c r="Q19" s="17">
-        <v>2.5244618395303329</v>
+        <v>25.244618395303327</v>
       </c>
       <c r="R19" s="17">
         <v>56.75146771037182</v>
@@ -2431,7 +2434,7 @@
         <v>0.55381604696673181</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>148</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>0.23752495009980037</v>
       </c>
       <c r="Q20" s="17">
-        <v>3.6926147704590822</v>
+        <v>36.926147704590818</v>
       </c>
       <c r="R20" s="17">
         <v>39.920159680638726</v>
@@ -2499,7 +2502,7 @@
         <v>3.9321357285429142</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>0.43939393939393939</v>
       </c>
       <c r="Q21" s="17">
-        <v>0.48484848484848481</v>
+        <v>4.8484848484848477</v>
       </c>
       <c r="R21" s="17">
         <v>39.772727272727273</v>
@@ -2567,7 +2570,7 @@
         <v>0.42992424242424238</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>0.17058823529411762</v>
       </c>
       <c r="Q22" s="17">
-        <v>1.8058823529411765</v>
+        <v>18.058823529411764</v>
       </c>
       <c r="R22" s="17">
         <v>56.86274509803922</v>
@@ -2635,7 +2638,7 @@
         <v>4.7058823529411766</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>0.20786516853932585</v>
       </c>
       <c r="Q23" s="17">
-        <v>2.9026217228464422</v>
+        <v>29.026217228464422</v>
       </c>
       <c r="R23" s="17">
         <v>65.543071161048701</v>
@@ -2703,7 +2706,7 @@
         <v>4.4756554307116101</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>148</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>0.1089108910891089</v>
       </c>
       <c r="Q24" s="17">
-        <v>1.8990099009900989</v>
+        <v>18.990099009900987</v>
       </c>
       <c r="R24" s="17">
         <v>61.386138613861384</v>
@@ -2771,7 +2774,7 @@
         <v>0.48514851485148514</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>148</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="Q25" s="17">
-        <v>2.9166666666666665</v>
+        <v>29.166666666666664</v>
       </c>
       <c r="R25" s="17">
         <v>68.181818181818173</v>
@@ -2839,7 +2842,7 @@
         <v>3.7121212121212115</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>0.34</v>
       </c>
       <c r="Q26" s="17">
-        <v>1.4019999999999999</v>
+        <v>14.02</v>
       </c>
       <c r="R26" s="17">
         <v>154</v>
@@ -2907,7 +2910,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>148</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>0.201171875</v>
       </c>
       <c r="Q27" s="18">
-        <v>0.3046875</v>
+        <v>3.046875</v>
       </c>
       <c r="R27" s="18">
         <v>56.640625</v>
@@ -2975,7 +2978,7 @@
         <v>0.380859375</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="Q28" s="18">
-        <v>3.8</v>
+        <v>38</v>
       </c>
       <c r="R28" s="18">
         <v>90</v>
@@ -3043,7 +3046,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>148</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>3.06</v>
       </c>
       <c r="Q29" s="17">
-        <v>0.57599999999999996</v>
+        <v>5.76</v>
       </c>
       <c r="R29" s="17">
         <v>116</v>
@@ -3111,7 +3114,7 @@
         <v>1.768</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>148</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>0.24521072796934867</v>
       </c>
       <c r="Q30" s="17">
-        <v>1.9540229885057472</v>
+        <v>19.540229885057471</v>
       </c>
       <c r="R30" s="17">
         <v>107.27969348659005</v>
@@ -3179,7 +3182,7 @@
         <v>0.54022988505747127</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>0.40119760479041916</v>
       </c>
       <c r="Q31" s="17">
-        <v>0.83233532934131738</v>
+        <v>8.3233532934131738</v>
       </c>
       <c r="R31" s="17">
         <v>117.76447105788422</v>
@@ -3247,7 +3250,7 @@
         <v>2.5149700598802398</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>148</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>0.18271119842829078</v>
       </c>
       <c r="Q32" s="17">
-        <v>0.43811394891944994</v>
+        <v>4.3811394891944992</v>
       </c>
       <c r="R32" s="17">
         <v>49.115913555992144</v>
@@ -3315,7 +3318,7 @@
         <v>0.4263261296660118</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>148</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>0.64312977099236635</v>
       </c>
       <c r="Q33" s="17">
-        <v>1.9465648854961832</v>
+        <v>19.465648854961831</v>
       </c>
       <c r="R33" s="17">
         <v>83.96946564885495</v>
@@ -3383,7 +3386,7 @@
         <v>0.39122137404580148</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>148</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>0.19195612431444237</v>
       </c>
       <c r="Q34" s="17">
-        <v>4.8811700182815345</v>
+        <v>48.811700182815343</v>
       </c>
       <c r="R34" s="17">
         <v>67.641681901279696</v>
@@ -3451,7 +3454,7 @@
         <v>0.86837294332723935</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>0.17391304347826086</v>
       </c>
       <c r="Q35" s="17">
-        <v>2.5296442687747036</v>
+        <v>25.296442687747035</v>
       </c>
       <c r="R35" s="17">
         <v>67.193675889328077</v>
@@ -3519,7 +3522,7 @@
         <v>3.0632411067193681</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>1.468</v>
       </c>
       <c r="Q36" s="17">
-        <v>0.64600000000000002</v>
+        <v>6.46</v>
       </c>
       <c r="R36" s="17">
         <v>78</v>
@@ -3587,7 +3590,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>0.19639278557114229</v>
       </c>
       <c r="Q37" s="17">
-        <v>1.2384769539078155</v>
+        <v>12.384769539078155</v>
       </c>
       <c r="R37" s="17">
         <v>70.140280561122253</v>
@@ -3655,7 +3658,7 @@
         <v>1.3266533066132264</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>0.21832358674463939</v>
       </c>
       <c r="Q38" s="17">
-        <v>2.4366471734892783</v>
+        <v>24.366471734892784</v>
       </c>
       <c r="R38" s="17">
         <v>101.36452241715399</v>
@@ -3723,7 +3726,7 @@
         <v>0.51656920077972712</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>149</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>0.19649805447470819</v>
       </c>
       <c r="Q39" s="18">
-        <v>1.1128404669260699</v>
+        <v>11.128404669260698</v>
       </c>
       <c r="R39" s="18">
         <v>103.11284046692607</v>
@@ -3791,7 +3794,7 @@
         <v>0.75486381322957197</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>0.12031558185404338</v>
       </c>
       <c r="Q40" s="18">
-        <v>0.86193293885601574</v>
+        <v>8.619329388560157</v>
       </c>
       <c r="R40" s="18">
         <v>96.646942800788949</v>
@@ -3859,7 +3862,7 @@
         <v>0.70019723865877703</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>149</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>0.30815109343936381</v>
       </c>
       <c r="Q41" s="18">
-        <v>1.1033797216699801</v>
+        <v>11.033797216699801</v>
       </c>
       <c r="R41" s="18">
         <v>111.33200795228629</v>
@@ -3927,7 +3930,7 @@
         <v>0.47514910536779326</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>149</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>0.57915831663326656</v>
       </c>
       <c r="Q42" s="18">
-        <v>2.0641282565130266</v>
+        <v>20.641282565130265</v>
       </c>
       <c r="R42" s="18">
         <v>104.20841683366733</v>
@@ -3995,7 +3998,7 @@
         <v>0.50901803607214435</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>0.24951267056530213</v>
       </c>
       <c r="Q43" s="18">
-        <v>0.62378167641325533</v>
+        <v>6.2378167641325533</v>
       </c>
       <c r="R43" s="18">
         <v>115.00974658869394</v>
@@ -4063,7 +4066,7 @@
         <v>0.57504873294346981</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>149</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>6.6071428571428568</v>
       </c>
       <c r="Q44" s="18">
-        <v>0.97023809523809523</v>
+        <v>9.7023809523809526</v>
       </c>
       <c r="R44" s="18">
         <v>170.63492063492063</v>
@@ -4131,7 +4134,7 @@
         <v>0.35912698412698407</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>149</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>0.27118644067796605</v>
       </c>
       <c r="Q45" s="18">
-        <v>1.7457627118644068</v>
+        <v>17.457627118644069</v>
       </c>
       <c r="R45" s="18">
         <v>114.87758945386064</v>
@@ -4199,7 +4202,7 @@
         <v>3.5781544256120523</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>149</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>0.41117764471057883</v>
       </c>
       <c r="Q46" s="18">
-        <v>1.564870259481038</v>
+        <v>15.648702594810381</v>
       </c>
       <c r="R46" s="18">
         <v>107.78443113772455</v>
@@ -4267,7 +4270,7 @@
         <v>2.1556886227544911</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>149</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>0.23320158102766797</v>
       </c>
       <c r="Q47" s="18">
-        <v>1.9545454545454546</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="R47" s="18">
         <v>92.885375494071155</v>
@@ -4335,7 +4338,7 @@
         <v>1.2233201581027668</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>8.1</v>
       </c>
       <c r="Q48" s="18">
-        <v>0.82</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R48" s="18">
         <v>142</v>
@@ -4403,7 +4406,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>149</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>5.46</v>
       </c>
       <c r="Q49" s="18">
-        <v>0.38200000000000001</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="R49" s="18">
         <v>166</v>
@@ -4471,7 +4474,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>0.72709163346613537</v>
       </c>
       <c r="Q50" s="18">
-        <v>2.9482071713147406</v>
+        <v>29.482071713147405</v>
       </c>
       <c r="R50" s="18">
         <v>133.46613545816734</v>
@@ -4539,7 +4542,7 @@
         <v>0.77091633466135456</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>149</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>0.2047713717693837</v>
       </c>
       <c r="Q51" s="18">
-        <v>1.6103379721669984</v>
+        <v>16.103379721669985</v>
       </c>
       <c r="R51" s="18">
         <v>365.80516898608352</v>
@@ -4607,7 +4610,7 @@
         <v>0.70178926441351885</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>0.15904572564612326</v>
       </c>
       <c r="Q52" s="17">
-        <v>0.74751491053677932</v>
+        <v>7.4751491053677928</v>
       </c>
       <c r="R52" s="17">
         <v>65.606361829025843</v>
@@ -4675,7 +4678,7 @@
         <v>0.94831013916500995</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>149</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>0.35428571428571426</v>
       </c>
       <c r="Q53" s="17">
-        <v>2.4380952380952379</v>
+        <v>24.38095238095238</v>
       </c>
       <c r="R53" s="17">
         <v>60.952380952380949</v>
@@ -4743,7 +4746,7 @@
         <v>0.65523809523809506</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>149</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>0.2753303964757709</v>
       </c>
       <c r="Q54" s="17">
-        <v>1.5881057268722465</v>
+        <v>15.881057268722465</v>
       </c>
       <c r="R54" s="17">
         <v>59.471365638766514</v>
@@ -4811,7 +4814,7 @@
         <v>0.34140969162995588</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>149</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>3.2437619961612283</v>
       </c>
       <c r="Q55" s="17">
-        <v>0.30902111324376197</v>
+        <v>3.0902111324376196</v>
       </c>
       <c r="R55" s="17">
         <v>42.226487523992319</v>
@@ -4879,7 +4882,7 @@
         <v>0.26487523992322459</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>149</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>0.88761904761904764</v>
       </c>
       <c r="Q56" s="17">
-        <v>1.0438095238095237</v>
+        <v>10.438095238095237</v>
       </c>
       <c r="R56" s="17">
         <v>53.333333333333329</v>
@@ -4947,7 +4950,7 @@
         <v>0.74476190476190474</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>149</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>1.45996275605214</v>
       </c>
       <c r="Q57" s="17">
-        <v>0.51210428305400379</v>
+        <v>5.1210428305400377</v>
       </c>
       <c r="R57" s="17">
         <v>52.141527001862201</v>
@@ -5015,7 +5018,7 @@
         <v>0.39478584729981381</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>0.27592954990215257</v>
       </c>
       <c r="Q58" s="17">
-        <v>1.7945205479452053</v>
+        <v>17.945205479452053</v>
       </c>
       <c r="R58" s="17">
         <v>91.976516634050881</v>
@@ -5083,7 +5086,7 @@
         <v>3.111545988258317</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>5.5888223552894205</v>
       </c>
       <c r="Q59" s="17">
-        <v>0.46706586826347307</v>
+        <v>4.6706586826347305</v>
       </c>
       <c r="R59" s="17">
         <v>71.856287425149688</v>
@@ -5151,7 +5154,7 @@
         <v>0.71856287425149701</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
@@ -5201,7 +5204,7 @@
         <v>5.161290322580645</v>
       </c>
       <c r="Q60" s="17">
-        <v>0.36559139784946226</v>
+        <v>3.6559139784946226</v>
       </c>
       <c r="R60" s="17">
         <v>69.892473118279568</v>
@@ -5219,7 +5222,7 @@
         <v>0.31899641577060922</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>149</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>0.61685823754789271</v>
       </c>
       <c r="Q61" s="17">
-        <v>2.4329501915708809</v>
+        <v>24.329501915708811</v>
       </c>
       <c r="R61" s="17">
         <v>63.218390804597703</v>
@@ -5287,7 +5290,7 @@
         <v>0.58237547892720309</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>149</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>0.17460317460317459</v>
       </c>
       <c r="Q62" s="17">
-        <v>1.9305555555555554</v>
+        <v>19.305555555555554</v>
       </c>
       <c r="R62" s="17">
         <v>55.555555555555557</v>
@@ -5355,7 +5358,7 @@
         <v>1.1071428571428574</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>149</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>0.20272904483430798</v>
       </c>
       <c r="Q63" s="17">
-        <v>2.6705653021442495</v>
+        <v>26.705653021442494</v>
       </c>
       <c r="R63" s="17">
         <v>79.922027290448341</v>
@@ -5423,7 +5426,7 @@
         <v>0.87914230019493178</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>149</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>0.20300751879699247</v>
       </c>
       <c r="Q64" s="17">
-        <v>1.0676691729323307</v>
+        <v>10.676691729323306</v>
       </c>
       <c r="R64" s="17">
         <v>56.390977443609017</v>
@@ -5491,7 +5494,7 @@
         <v>0.9586466165413533</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>149</v>
       </c>
@@ -5541,7 +5544,7 @@
         <v>0.20118343195266269</v>
       </c>
       <c r="Q65" s="17">
-        <v>2.3076923076923075</v>
+        <v>23.076923076923073</v>
       </c>
       <c r="R65" s="17">
         <v>45.364891518737672</v>
@@ -5559,7 +5562,7 @@
         <v>0.54635108481262329</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>149</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>3.205374280230326</v>
       </c>
       <c r="Q66" s="17">
-        <v>0.38579654510556621</v>
+        <v>3.8579654510556622</v>
       </c>
       <c r="R66" s="17">
         <v>36.468330134357004</v>
@@ -5627,7 +5630,7 @@
         <v>0.24184261036468327</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>149</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>0.64396887159533078</v>
       </c>
       <c r="Q67" s="17">
-        <v>1.4708171206225682</v>
+        <v>14.708171206225682</v>
       </c>
       <c r="R67" s="17">
         <v>54.474708171206224</v>
@@ -5695,7 +5698,7 @@
         <v>0.91634241245136183</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>0.4</v>
       </c>
       <c r="Q68" s="17">
-        <v>2.3063063063063063</v>
+        <v>23.063063063063062</v>
       </c>
       <c r="R68" s="17">
         <v>43.243243243243242</v>
@@ -5763,7 +5766,7 @@
         <v>0.84504504504504496</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>149</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>3.380566801619433</v>
       </c>
       <c r="Q69" s="17">
-        <v>1.0060728744939271</v>
+        <v>10.060728744939272</v>
       </c>
       <c r="R69" s="17">
         <v>56.680161943319838</v>
@@ -5831,7 +5834,7 @@
         <v>0.38866396761133604</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>149</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>0.20736434108527133</v>
       </c>
       <c r="Q70" s="17">
-        <v>0.78488372093023262</v>
+        <v>7.8488372093023262</v>
       </c>
       <c r="R70" s="17">
         <v>46.511627906976749</v>
@@ -5899,7 +5902,7 @@
         <v>1.248062015503876</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>149</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>0.15867158671586715</v>
       </c>
       <c r="Q71" s="17">
-        <v>1.7859778597785976</v>
+        <v>17.859778597785976</v>
       </c>
       <c r="R71" s="17">
         <v>73.800738007380076</v>
@@ -5967,7 +5970,7 @@
         <v>1.07380073800738</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>149</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>4.1154562383612667</v>
       </c>
       <c r="Q72" s="17">
-        <v>0.66294227188081933</v>
+        <v>6.6294227188081933</v>
       </c>
       <c r="R72" s="17">
         <v>67.039106145251395</v>
@@ -6035,7 +6038,7 @@
         <v>0.96275605214152704</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>4.606299212598425</v>
       </c>
       <c r="Q73" s="17">
-        <v>0.34645669291338577</v>
+        <v>3.4645669291338574</v>
       </c>
       <c r="R73" s="17">
         <v>47.244094488188978</v>
@@ -6103,7 +6106,7 @@
         <v>0.90551181102362199</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>5.5643564356435649</v>
       </c>
       <c r="Q74" s="17">
-        <v>0.48118811881188117</v>
+        <v>4.8118811881188117</v>
       </c>
       <c r="R74" s="17">
         <v>87.128712871287121</v>
@@ -6171,7 +6174,7 @@
         <v>0.22574257425742572</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>149</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>0.19246031746031747</v>
       </c>
       <c r="Q75" s="17">
-        <v>3.0753968253968256</v>
+        <v>30.753968253968257</v>
       </c>
       <c r="R75" s="17">
         <v>49.603174603174608</v>
@@ -6239,7 +6242,7 @@
         <v>1.2996031746031746</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>0.45364891518737671</v>
       </c>
       <c r="Q76" s="17">
-        <v>4.9309664694280073</v>
+        <v>49.309664694280073</v>
       </c>
       <c r="R76" s="17">
         <v>61.143984220907292</v>
@@ -6307,7 +6310,7 @@
         <v>0.81065088757396442</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>0.38771593090211132</v>
       </c>
       <c r="Q77" s="17">
-        <v>1.2495201535508635</v>
+        <v>12.495201535508635</v>
       </c>
       <c r="R77" s="17">
         <v>95.969289827255281</v>
@@ -6375,7 +6378,7 @@
         <v>0.94241842610364679</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="Q78" s="17">
-        <v>1.3560000000000001</v>
+        <v>13.56</v>
       </c>
       <c r="R78" s="17">
         <v>64</v>
@@ -6443,7 +6446,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>149</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>4.5972495088408643</v>
       </c>
       <c r="Q79" s="17">
-        <v>0.48330058939096265</v>
+        <v>4.8330058939096263</v>
       </c>
       <c r="R79" s="17">
         <v>58.939096267190571</v>
@@ -6511,7 +6514,7 @@
         <v>0.36149312377210213</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>149</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>0.75932835820895517</v>
       </c>
       <c r="Q80" s="17">
-        <v>3.283582089552239</v>
+        <v>32.835820895522389</v>
       </c>
       <c r="R80" s="17">
         <v>55.970149253731343</v>
@@ -6579,7 +6582,7 @@
         <v>0.83955223880597019</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>149</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>0.33267326732673269</v>
       </c>
       <c r="Q81" s="17">
-        <v>1.2831683168316832</v>
+        <v>12.831683168316832</v>
       </c>
       <c r="R81" s="17">
         <v>85.148514851485132</v>
@@ -6647,7 +6650,7 @@
         <v>2.8316831683168315</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>149</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>0.2263779527559055</v>
       </c>
       <c r="Q82" s="17">
-        <v>1.2814960629921259</v>
+        <v>12.814960629921259</v>
       </c>
       <c r="R82" s="17">
         <v>53.149606299212593</v>
@@ -6715,7 +6718,7 @@
         <v>3.2480314960629917</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>149</v>
       </c>
@@ -6765,7 +6768,7 @@
         <v>6.410748560460652</v>
       </c>
       <c r="Q83" s="17">
-        <v>0.42994241842610365</v>
+        <v>4.2994241842610368</v>
       </c>
       <c r="R83" s="17">
         <v>67.178502879078692</v>
@@ -6783,7 +6786,7 @@
         <v>1.165067178502879</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>149</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>0.27944111776447106</v>
       </c>
       <c r="Q84" s="17">
-        <v>2.5948103792415167</v>
+        <v>25.948103792415168</v>
       </c>
       <c r="R84" s="17">
         <v>71.856287425149688</v>
@@ -6851,7 +6854,7 @@
         <v>5.8483033932135733</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>149</v>
       </c>
@@ -6901,7 +6904,7 @@
         <v>5.416666666666667</v>
       </c>
       <c r="Q85" s="17">
-        <v>0.46031746031746035</v>
+        <v>4.6031746031746037</v>
       </c>
       <c r="R85" s="17">
         <v>77.38095238095238</v>
@@ -6919,7 +6922,7 @@
         <v>0.29761904761904762</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>149</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>0.18285714285714283</v>
       </c>
       <c r="Q86" s="17">
-        <v>0.81714285714285706</v>
+        <v>8.1714285714285708</v>
       </c>
       <c r="R86" s="17">
         <v>70.476190476190467</v>
@@ -6987,7 +6990,7 @@
         <v>0.93904761904761891</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>149</v>
       </c>
@@ -7037,7 +7040,7 @@
         <v>0.10000000000000002</v>
       </c>
       <c r="Q87" s="17">
-        <v>0.84912280701754395</v>
+        <v>8.4912280701754401</v>
       </c>
       <c r="R87" s="17">
         <v>47.368421052631582</v>
@@ -7055,7 +7058,7 @@
         <v>0.50701754385964914</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>149</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>0.30994152046783624</v>
       </c>
       <c r="Q88" s="17">
-        <v>2.5536062378167639</v>
+        <v>25.536062378167639</v>
       </c>
       <c r="R88" s="17">
         <v>58.479532163742682</v>
@@ -7123,7 +7126,7 @@
         <v>1.0058479532163742</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>149</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>5.117647058823529</v>
       </c>
       <c r="Q89" s="17">
-        <v>0.30784313725490192</v>
+        <v>3.0784313725490193</v>
       </c>
       <c r="R89" s="17">
         <v>54.901960784313722</v>
@@ -7191,7 +7194,7 @@
         <v>0.25294117647058822</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>149</v>
       </c>
@@ -7241,7 +7244,7 @@
         <v>0.3515625</v>
       </c>
       <c r="Q90" s="17">
-        <v>0.62109375</v>
+        <v>6.2109375</v>
       </c>
       <c r="R90" s="17">
         <v>62.5</v>
@@ -7259,7 +7262,7 @@
         <v>0.484375</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>149</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>0.15139442231075698</v>
       </c>
       <c r="Q91" s="17">
-        <v>3.5856573705179282</v>
+        <v>35.856573705179279</v>
       </c>
       <c r="R91" s="17">
         <v>63.745019920318725</v>
@@ -7327,7 +7330,7 @@
         <v>0.7111553784860557</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>149</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>0.91650099403578533</v>
       </c>
       <c r="Q92" s="17">
-        <v>1.268389662027833</v>
+        <v>12.683896620278329</v>
       </c>
       <c r="R92" s="17">
         <v>69.582504970178931</v>
@@ -7395,7 +7398,7 @@
         <v>0.76540755467196819</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>149</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>0.21454545454545451</v>
       </c>
       <c r="Q93" s="17">
-        <v>0.75272727272727269</v>
+        <v>7.5272727272727273</v>
       </c>
       <c r="R93" s="17">
         <v>58.18181818181818</v>
@@ -7463,7 +7466,7 @@
         <v>1.8363636363636362</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>149</v>
       </c>
@@ -7513,7 +7516,7 @@
         <v>3.9655172413793101</v>
       </c>
       <c r="Q94" s="17">
-        <v>0.45210727969348657</v>
+        <v>4.5210727969348659</v>
       </c>
       <c r="R94" s="17">
         <v>80.459770114942529</v>
@@ -7531,7 +7534,7 @@
         <v>0.27969348659003829</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>149</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>0.31764705882352939</v>
       </c>
       <c r="Q95" s="17">
-        <v>1.7607843137254902</v>
+        <v>17.607843137254903</v>
       </c>
       <c r="R95" s="17">
         <v>86.274509803921561</v>
@@ -7599,7 +7602,7 @@
         <v>0.93921568627450969</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>149</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>0.14312267657992564</v>
       </c>
       <c r="Q96" s="17">
-        <v>3.531598513011152</v>
+        <v>35.315985130111521</v>
       </c>
       <c r="R96" s="17">
         <v>48.3271375464684</v>
@@ -7667,7 +7670,7 @@
         <v>1.0185873605947957</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>150</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>0.128060263653484</v>
       </c>
       <c r="Q97" s="17">
-        <v>0.95480225988700551</v>
+        <v>9.5480225988700553</v>
       </c>
       <c r="R97" s="17">
         <v>96.045197740112982</v>
@@ -7735,7 +7738,7 @@
         <v>0.70056497175141241</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>150</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>0.19961612284069097</v>
       </c>
       <c r="Q98" s="17">
-        <v>1.1209213051823415</v>
+        <v>11.209213051823415</v>
       </c>
       <c r="R98" s="17">
         <v>44.145873320537426</v>
@@ -7803,7 +7806,7 @@
         <v>0.44529750479846453</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>150</v>
       </c>
@@ -7853,7 +7856,7 @@
         <v>7.051282051282052</v>
       </c>
       <c r="Q99" s="17">
-        <v>0.44505494505494503</v>
+        <v>4.4505494505494507</v>
       </c>
       <c r="R99" s="17">
         <v>42.124542124542124</v>
@@ -7871,7 +7874,7 @@
         <v>0.26373626373626369</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>150</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="Q100" s="17">
-        <v>1.1220000000000001</v>
+        <v>11.22</v>
       </c>
       <c r="R100" s="17">
         <v>70</v>
@@ -7939,7 +7942,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>150</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>0.24750499001996007</v>
       </c>
       <c r="Q101" s="17">
-        <v>2.8143712574850297</v>
+        <v>28.143712574850298</v>
       </c>
       <c r="R101" s="17">
         <v>65.868263473053887</v>
@@ -8007,7 +8010,7 @@
         <v>0.81037924151696605</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>150</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>6.3999999999999995</v>
       </c>
       <c r="Q102" s="17">
-        <v>1.1399999999999999</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="R102" s="17">
         <v>49.090909090909086</v>
@@ -8075,7 +8078,7 @@
         <v>0.33818181818181814</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>150</v>
       </c>
@@ -8125,7 +8128,7 @@
         <v>0.16634050880626222</v>
       </c>
       <c r="Q103" s="17">
-        <v>1.2583170254403131</v>
+        <v>12.583170254403131</v>
       </c>
       <c r="R103" s="17">
         <v>58.708414872798429</v>
@@ -8143,7 +8146,7 @@
         <v>0.68493150684931492</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>150</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>9.6317829457364326</v>
       </c>
       <c r="Q104" s="17">
-        <v>0.82170542635658905</v>
+        <v>8.2170542635658901</v>
       </c>
       <c r="R104" s="17">
         <v>60.077519379844958</v>
@@ -8211,7 +8214,7 @@
         <v>0.51937984496124034</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>150</v>
       </c>
@@ -8261,7 +8264,7 @@
         <v>5.5597014925373136</v>
       </c>
       <c r="Q105" s="17">
-        <v>0.44029850746268651</v>
+        <v>4.4029850746268648</v>
       </c>
       <c r="R105" s="17">
         <v>83.955223880597018</v>
@@ -8279,7 +8282,7 @@
         <v>0.35261194029850745</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>150</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>0.41865079365079361</v>
       </c>
       <c r="Q106" s="17">
-        <v>3.4523809523809521</v>
+        <v>34.523809523809518</v>
       </c>
       <c r="R106" s="17">
         <v>79.365079365079367</v>
@@ -8347,7 +8350,7 @@
         <v>0.6865079365079364</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>150</v>
       </c>
@@ -8397,7 +8400,7 @@
         <v>0.67049808429118773</v>
       </c>
       <c r="Q107" s="17">
-        <v>3.6015325670498082</v>
+        <v>36.015325670498079</v>
       </c>
       <c r="R107" s="17">
         <v>68.965517241379303</v>
@@ -8415,7 +8418,7 @@
         <v>0.69731800766283525</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>150</v>
       </c>
@@ -8465,7 +8468,7 @@
         <v>7.5697211155378488E-2</v>
       </c>
       <c r="Q108" s="17">
-        <v>0.96215139442231068</v>
+        <v>9.621513944223107</v>
       </c>
       <c r="R108" s="17">
         <v>41.832669322709165</v>
@@ -8483,7 +8486,7 @@
         <v>0.72709163346613537</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>150</v>
       </c>
@@ -8533,7 +8536,7 @@
         <v>4.3478260869565224</v>
       </c>
       <c r="Q109" s="17">
-        <v>0.34782608695652173</v>
+        <v>3.4782608695652173</v>
       </c>
       <c r="R109" s="17">
         <v>55.335968379446641</v>
@@ -8551,7 +8554,7 @@
         <v>0.25098814229249011</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>150</v>
       </c>
@@ -8601,7 +8604,7 @@
         <v>0.50099403578528834</v>
       </c>
       <c r="Q110" s="17">
-        <v>3.2405566600397613</v>
+        <v>32.405566600397613</v>
       </c>
       <c r="R110" s="17">
         <v>81.51093439363818</v>
@@ -8619,7 +8622,7 @@
         <v>0.80914512922465198</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>150</v>
       </c>
@@ -8669,7 +8672,7 @@
         <v>1.0134615384615386</v>
       </c>
       <c r="Q111" s="17">
-        <v>1.2403846153846154</v>
+        <v>12.403846153846153</v>
       </c>
       <c r="R111" s="17">
         <v>55.769230769230774</v>
@@ -8687,7 +8690,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>150</v>
       </c>
@@ -8737,7 +8740,7 @@
         <v>0.14516129032258063</v>
       </c>
       <c r="Q112" s="17">
-        <v>3.1899641577060929</v>
+        <v>31.89964157706093</v>
       </c>
       <c r="R112" s="17">
         <v>50.179211469534046</v>
@@ -8755,7 +8758,7 @@
         <v>0.94982078853046581</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>150</v>
       </c>
@@ -8805,7 +8808,7 @@
         <v>2.9482071713147406</v>
       </c>
       <c r="Q113" s="17">
-        <v>0.86254980079681276</v>
+        <v>8.6254980079681278</v>
       </c>
       <c r="R113" s="17">
         <v>55.776892430278885</v>
@@ -8823,7 +8826,7 @@
         <v>0.35657370517928283</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>150</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>0.35992217898832685</v>
       </c>
       <c r="Q114" s="17">
-        <v>1.7568093385214008</v>
+        <v>17.568093385214006</v>
       </c>
       <c r="R114" s="17">
         <v>79.766536964980546</v>
@@ -8891,7 +8894,7 @@
         <v>1.7859922178988328</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>150</v>
       </c>
@@ -8941,7 +8944,7 @@
         <v>0.10318949343339587</v>
       </c>
       <c r="Q115" s="17">
-        <v>2.3076923076923075</v>
+        <v>23.076923076923073</v>
       </c>
       <c r="R115" s="17">
         <v>46.904315196998127</v>
@@ -8959,7 +8962,7 @@
         <v>0.77298311444652901</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>150</v>
       </c>
@@ -9009,7 +9012,7 @@
         <v>7.3370577281191807</v>
       </c>
       <c r="Q116" s="17">
-        <v>0.92364990689013027</v>
+        <v>9.2364990689013027</v>
       </c>
       <c r="R116" s="17">
         <v>76.350093109869647</v>
@@ -9027,7 +9030,7 @@
         <v>0.56052141527001853</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>150</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>3.8722554890219558</v>
       </c>
       <c r="Q117" s="17">
-        <v>0.35728542914171652</v>
+        <v>3.572854291417165</v>
       </c>
       <c r="R117" s="17">
         <v>65.868263473053887</v>
@@ -9095,7 +9098,7 @@
         <v>0.27145708582834333</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>150</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>0.29729729729729731</v>
       </c>
       <c r="Q118" s="17">
-        <v>1.718146718146718</v>
+        <v>17.18146718146718</v>
       </c>
       <c r="R118" s="17">
         <v>77.220077220077215</v>
@@ -9163,7 +9166,7 @@
         <v>0.69691119691119685</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>150</v>
       </c>
@@ -9213,7 +9216,7 @@
         <v>0.29341317365269459</v>
       </c>
       <c r="Q119" s="17">
-        <v>0.6586826347305389</v>
+        <v>6.5868263473053892</v>
       </c>
       <c r="R119" s="17">
         <v>57.884231536926151</v>
@@ -9231,7 +9234,7 @@
         <v>1.2335329341317365</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>150</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="Q120" s="17">
-        <v>0.82199999999999995</v>
+        <v>8.2199999999999989</v>
       </c>
       <c r="R120" s="17">
         <v>74</v>
@@ -9299,7 +9302,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>150</v>
       </c>
@@ -9349,7 +9352,7 @@
         <v>0.11150442477876107</v>
       </c>
       <c r="Q121" s="17">
-        <v>0.84778761061946906</v>
+        <v>8.4778761061946906</v>
       </c>
       <c r="R121" s="17">
         <v>53.097345132743364</v>
@@ -9367,7 +9370,7 @@
         <v>0.67256637168141609</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>150</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>7.7075098814229248</v>
       </c>
       <c r="Q122" s="17">
-        <v>0.6027667984189724</v>
+        <v>6.0276679841897245</v>
       </c>
       <c r="R122" s="17">
         <v>41.501976284584984</v>
@@ -9435,7 +9438,7 @@
         <v>0.3675889328063241</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>150</v>
       </c>
@@ -9485,7 +9488,7 @@
         <v>4.0704500978473579</v>
       </c>
       <c r="Q123" s="17">
-        <v>0.91585127201565553</v>
+        <v>9.1585127201565548</v>
       </c>
       <c r="R123" s="17">
         <v>88.062622309197636</v>
@@ -9503,7 +9506,7 @@
         <v>0.59295499021526421</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>150</v>
       </c>
@@ -9553,7 +9556,7 @@
         <v>0.39423076923076922</v>
       </c>
       <c r="Q124" s="17">
-        <v>1.3769230769230769</v>
+        <v>13.76923076923077</v>
       </c>
       <c r="R124" s="17">
         <v>76.92307692307692</v>
@@ -9571,7 +9574,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>150</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>0.40396039603960388</v>
       </c>
       <c r="Q125" s="17">
-        <v>4.1584158415841586</v>
+        <v>41.584158415841586</v>
       </c>
       <c r="R125" s="17">
         <v>89.108910891089096</v>
@@ -9639,7 +9642,7 @@
         <v>0.6415841584158416</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>150</v>
       </c>
@@ -9689,7 +9692,7 @@
         <v>0.66471734892787526</v>
       </c>
       <c r="Q126" s="17">
-        <v>1.0233918128654971</v>
+        <v>10.23391812865497</v>
       </c>
       <c r="R126" s="17">
         <v>76.023391812865498</v>
@@ -9707,7 +9710,7 @@
         <v>0.70955165692007793</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>150</v>
       </c>
@@ -9757,7 +9760,7 @@
         <v>2.6565464895635675</v>
       </c>
       <c r="Q127" s="17">
-        <v>0.6470588235294118</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="R127" s="17">
         <v>125.23719165085389</v>
@@ -9775,7 +9778,7 @@
         <v>0.42125237191650855</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>150</v>
       </c>
@@ -9825,7 +9828,7 @@
         <v>0.41117764471057883</v>
       </c>
       <c r="Q128" s="17">
-        <v>1.2774451097804391</v>
+        <v>12.774451097804391</v>
       </c>
       <c r="R128" s="17">
         <v>103.79241516966067</v>
@@ -9843,7 +9846,7 @@
         <v>1.0558882235528944</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>150</v>
       </c>
@@ -9893,7 +9896,7 @@
         <v>6.8725099601593627</v>
       </c>
       <c r="Q129" s="17">
-        <v>0.58964143426294813</v>
+        <v>5.8964143426294813</v>
       </c>
       <c r="R129" s="17">
         <v>105.57768924302788</v>
@@ -9911,7 +9914,7 @@
         <v>0.41035856573705176</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>150</v>
       </c>
@@ -9961,7 +9964,7 @@
         <v>0.45098039215686275</v>
       </c>
       <c r="Q130" s="17">
-        <v>3.5098039215686274</v>
+        <v>35.098039215686271</v>
       </c>
       <c r="R130" s="17">
         <v>105.88235294117646</v>
@@ -9979,7 +9982,7 @@
         <v>0.57450980392156858</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>150</v>
       </c>
@@ -10029,7 +10032,7 @@
         <v>0.1</v>
       </c>
       <c r="Q131" s="18">
-        <v>0.872</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="R131" s="18">
         <v>82</v>
@@ -10047,7 +10050,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>150</v>
       </c>
@@ -10097,7 +10100,7 @@
         <v>9.6958174904942958</v>
       </c>
       <c r="Q132" s="18">
-        <v>0.42015209125475284</v>
+        <v>4.2015209125475286</v>
       </c>
       <c r="R132" s="18">
         <v>87.452471482889734</v>
@@ -10115,7 +10118,7 @@
         <v>0.17110266159695817</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>150</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>0.4718446601941747</v>
       </c>
       <c r="Q133" s="18">
-        <v>0.9262135922330097</v>
+        <v>9.2621359223300974</v>
       </c>
       <c r="R133" s="18">
         <v>89.320388349514559</v>
@@ -10183,7 +10186,7 @@
         <v>0.44466019417475727</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>150</v>
       </c>
@@ -10233,7 +10236,7 @@
         <v>1.8640000000000001</v>
       </c>
       <c r="Q134" s="18">
-        <v>0.60799999999999998</v>
+        <v>6.08</v>
       </c>
       <c r="R134" s="18">
         <v>74</v>
@@ -10251,7 +10254,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>150</v>
       </c>
@@ -10301,7 +10304,7 @@
         <v>0.48133595284872299</v>
       </c>
       <c r="Q135" s="18">
-        <v>1.3654223968565813</v>
+        <v>13.654223968565812</v>
       </c>
       <c r="R135" s="18">
         <v>111.98428290766209</v>
@@ -10319,7 +10322,7 @@
         <v>0.39096267190569745</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>150</v>
       </c>
@@ -10369,7 +10372,7 @@
         <v>7.3255813953488369</v>
       </c>
       <c r="Q136" s="18">
-        <v>1.1143410852713178</v>
+        <v>11.143410852713178</v>
       </c>
       <c r="R136" s="18">
         <v>114.34108527131782</v>
@@ -10387,7 +10390,7 @@
         <v>0.4573643410852713</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>150</v>
       </c>
@@ -10437,7 +10440,7 @@
         <v>4.7619047619047619</v>
       </c>
       <c r="Q137" s="18">
-        <v>0.37301587301587302</v>
+        <v>3.7301587301587302</v>
       </c>
       <c r="R137" s="18">
         <v>117.06349206349205</v>
@@ -10455,7 +10458,7 @@
         <v>0.17658730158730157</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
@@ -10505,7 +10508,7 @@
         <v>0.44333996023856859</v>
       </c>
       <c r="Q138" s="18">
-        <v>2.5844930417495031</v>
+        <v>25.844930417495032</v>
       </c>
       <c r="R138" s="18">
         <v>129.22465208747516</v>
@@ -10523,7 +10526,7 @@
         <v>0.46719681908548705</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>150</v>
       </c>
@@ -10573,7 +10576,7 @@
         <v>0.25697211155378485</v>
       </c>
       <c r="Q139" s="17">
-        <v>0.71513944223107573</v>
+        <v>7.1513944223107568</v>
       </c>
       <c r="R139" s="17">
         <v>107.56972111553785</v>
@@ -10591,7 +10594,7 @@
         <v>0.84860557768924294</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>150</v>
       </c>
@@ -10641,7 +10644,7 @@
         <v>0.10810810810810811</v>
       </c>
       <c r="Q140" s="17">
-        <v>0.80694980694980689</v>
+        <v>8.0694980694980689</v>
       </c>
       <c r="R140" s="17">
         <v>36.679536679536675</v>
@@ -10659,7 +10662,7 @@
         <v>0.56370656370656369</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>150</v>
       </c>
@@ -10709,7 +10712,7 @@
         <v>6.2129144851657951</v>
       </c>
       <c r="Q141" s="17">
-        <v>0.41012216404886559</v>
+        <v>4.1012216404886557</v>
       </c>
       <c r="R141" s="17">
         <v>29.668411867364753</v>
@@ -10727,7 +10730,7 @@
         <v>0.22338568935427577</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>150</v>
       </c>
@@ -10777,7 +10780,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="Q142" s="17">
-        <v>4.0873015873015879</v>
+        <v>40.873015873015881</v>
       </c>
       <c r="R142" s="17">
         <v>71.428571428571416</v>
@@ -10795,7 +10798,7 @@
         <v>0.71428571428571419</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>0.4573643410852713</v>
       </c>
       <c r="Q143" s="17">
-        <v>1.3565891472868217</v>
+        <v>13.565891472868216</v>
       </c>
       <c r="R143" s="17">
         <v>60.077519379844958</v>
@@ -10863,7 +10866,7 @@
         <v>0.55038759689922467</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>150</v>
       </c>
@@ -10913,7 +10916,7 @@
         <v>0.27435387673956269</v>
       </c>
       <c r="Q144" s="17">
-        <v>2.8031809145129225</v>
+        <v>28.031809145129223</v>
       </c>
       <c r="R144" s="17">
         <v>73.558648111332005</v>
@@ -10931,7 +10934,7 @@
         <v>0.98608349900596415</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>150</v>
       </c>
@@ -10981,7 +10984,7 @@
         <v>3.4</v>
       </c>
       <c r="Q145" s="17">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="R145" s="17">
         <v>64</v>
@@ -10999,7 +11002,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>7.78</v>
       </c>
       <c r="Q146" s="17">
-        <v>0.752</v>
+        <v>7.52</v>
       </c>
       <c r="R146" s="17">
         <v>98</v>
@@ -11067,7 +11070,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -11117,7 +11120,7 @@
         <v>7.0333988212180749</v>
       </c>
       <c r="Q147" s="17">
-        <v>0.52652259332023588</v>
+        <v>5.265225933202359</v>
       </c>
       <c r="R147" s="17">
         <v>72.691552062868368</v>
@@ -11135,7 +11138,7 @@
         <v>0.2711198428290767</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
@@ -11185,7 +11188,7 @@
         <v>0.37159533073929962</v>
       </c>
       <c r="Q148" s="17">
-        <v>2.5486381322957201</v>
+        <v>25.4863813229572</v>
       </c>
       <c r="R148" s="17">
         <v>71.98443579766537</v>
@@ -11203,7 +11206,7 @@
         <v>0.70038910505836582</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -11253,7 +11256,7 @@
         <v>0.38986354775828458</v>
       </c>
       <c r="Q149" s="17">
-        <v>0.62962962962962965</v>
+        <v>6.2962962962962967</v>
       </c>
       <c r="R149" s="17"/>
       <c r="S149" s="17">
@@ -11269,7 +11272,7 @@
         <v>0.41520467836257308</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
@@ -11319,7 +11322,7 @@
         <v>0.42998027613412226</v>
       </c>
       <c r="Q150" s="17">
-        <v>3.944773175542406</v>
+        <v>39.447731755424059</v>
       </c>
       <c r="R150" s="17">
         <v>51.282051282051277</v>
@@ -11337,7 +11340,7 @@
         <v>0.91715976331360949</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
@@ -11387,7 +11390,7 @@
         <v>9.672447013487476</v>
       </c>
       <c r="Q151" s="17">
-        <v>0.23699421965317918</v>
+        <v>2.3699421965317917</v>
       </c>
       <c r="R151" s="17">
         <v>40.462427745664741</v>
@@ -11405,7 +11408,7 @@
         <v>0.27360308285163776</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -11455,7 +11458,7 @@
         <v>33.786407766990294</v>
       </c>
       <c r="Q152" s="17">
-        <v>0.74951456310679609</v>
+        <v>7.4951456310679614</v>
       </c>
       <c r="R152" s="17">
         <v>33.009708737864081</v>
@@ -11473,7 +11476,7 @@
         <v>0.19611650485436893</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
@@ -11523,7 +11526,7 @@
         <v>7.1825396825396828</v>
       </c>
       <c r="Q153" s="17">
-        <v>0.98611111111111105</v>
+        <v>9.8611111111111107</v>
       </c>
       <c r="R153" s="17">
         <v>55.555555555555557</v>
@@ -11541,7 +11544,7 @@
         <v>0.31150793650793651</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
@@ -11591,7 +11594,7 @@
         <v>0.20075757575757572</v>
       </c>
       <c r="Q154" s="17">
-        <v>0.67424242424242409</v>
+        <v>6.7424242424242404</v>
       </c>
       <c r="R154" s="17">
         <v>60.606060606060602</v>
@@ -11609,7 +11612,7 @@
         <v>0.4488636363636363</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>151</v>
       </c>
@@ -11659,7 +11662,7 @@
         <v>0.20309477756286265</v>
       </c>
       <c r="Q155" s="17">
-        <v>0.32108317214700194</v>
+        <v>3.2108317214700195</v>
       </c>
       <c r="R155" s="17">
         <v>54.158607350096716</v>
@@ -11677,7 +11680,7 @@
         <v>0.30754352030947774</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>151</v>
       </c>
@@ -11727,7 +11730,7 @@
         <v>3.75</v>
       </c>
       <c r="Q156" s="17">
-        <v>0.779296875</v>
+        <v>7.79296875</v>
       </c>
       <c r="R156" s="17">
         <v>74.21875</v>
@@ -11745,7 +11748,7 @@
         <v>0.69140625</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>151</v>
       </c>
@@ -11795,7 +11798,7 @@
         <v>0.58148148148148138</v>
       </c>
       <c r="Q157" s="17">
-        <v>2.2407407407407405</v>
+        <v>22.407407407407405</v>
       </c>
       <c r="R157" s="17">
         <v>111.1111111111111</v>
@@ -11813,7 +11816,7 @@
         <v>0.36481481481481476</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>151</v>
       </c>
@@ -11863,7 +11866,7 @@
         <v>3.3904761904761904</v>
       </c>
       <c r="Q158" s="17">
-        <v>0.44380952380952382</v>
+        <v>4.4380952380952383</v>
       </c>
       <c r="R158" s="17">
         <v>83.809523809523796</v>
@@ -11881,7 +11884,7 @@
         <v>0.23047619047619045</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>151</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>0.20036764705882351</v>
       </c>
       <c r="Q159" s="17">
-        <v>1.5955882352941173</v>
+        <v>15.955882352941174</v>
       </c>
       <c r="R159" s="17">
         <v>69.85294117647058</v>
@@ -11949,7 +11952,7 @@
         <v>0.78860294117647045</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>151</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>0.33988212180746558</v>
       </c>
       <c r="Q160" s="17">
-        <v>1.3045186640471513</v>
+        <v>13.045186640471513</v>
       </c>
       <c r="R160" s="17">
         <v>56.97445972495089</v>
@@ -12017,7 +12020,7 @@
         <v>0.36935166994106089</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>151</v>
       </c>
@@ -12067,7 +12070,7 @@
         <v>1.0282485875706215</v>
       </c>
       <c r="Q161" s="17">
-        <v>0.31826741996233521</v>
+        <v>3.1826741996233521</v>
       </c>
       <c r="R161" s="17">
         <v>60.263653483992464</v>
@@ -12085,7 +12088,7 @@
         <v>0.48587570621468928</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>151</v>
       </c>
@@ -12135,7 +12138,7 @@
         <v>0.27102803738317754</v>
       </c>
       <c r="Q162" s="17">
-        <v>0.70841121495327108</v>
+        <v>7.0841121495327108</v>
       </c>
       <c r="R162" s="17">
         <v>39.252336448598136</v>
@@ -12153,7 +12156,7 @@
         <v>0.28411214953271025</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>151</v>
       </c>
@@ -12203,7 +12206,7 @@
         <v>0.39738805970149255</v>
       </c>
       <c r="Q163" s="17">
-        <v>0.87126865671641796</v>
+        <v>8.7126865671641802</v>
       </c>
       <c r="R163" s="17">
         <v>54.104477611940304</v>
@@ -12221,7 +12224,7 @@
         <v>0.31529850746268656</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>151</v>
       </c>
@@ -12271,7 +12274,7 @@
         <v>6.1493123772102161</v>
       </c>
       <c r="Q164" s="17">
-        <v>0.22396856581532418</v>
+        <v>2.2396856581532418</v>
       </c>
       <c r="R164" s="17">
         <v>108.05500982318271</v>
@@ -12289,7 +12292,7 @@
         <v>0.15913555992141454</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>151</v>
       </c>
@@ -12339,7 +12342,7 @@
         <v>5.6319702602230484</v>
       </c>
       <c r="Q165" s="17">
-        <v>0.33085501858736055</v>
+        <v>3.3085501858736057</v>
       </c>
       <c r="R165" s="17">
         <v>29.739776951672862</v>
@@ -12357,7 +12360,7 @@
         <v>0.18029739776951673</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>151</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>8.4916201117318426</v>
       </c>
       <c r="Q166" s="17">
-        <v>0.36499068901303539</v>
+        <v>3.649906890130354</v>
       </c>
       <c r="R166" s="17">
         <v>57.728119180633144</v>
@@ -12425,7 +12428,7 @@
         <v>0.32588454376163872</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>151</v>
       </c>
@@ -12475,7 +12478,7 @@
         <v>42.998027613412233</v>
       </c>
       <c r="Q167" s="17">
-        <v>0.96646942800788949</v>
+        <v>9.6646942800788942</v>
       </c>
       <c r="R167" s="17">
         <v>41.420118343195263</v>
@@ -12493,7 +12496,7 @@
         <v>0.17357001972386588</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>151</v>
       </c>
@@ -12543,7 +12546,7 @@
         <v>12.529644268774703</v>
       </c>
       <c r="Q168" s="17">
-        <v>0.36166007905138342</v>
+        <v>3.616600790513834</v>
       </c>
       <c r="R168" s="17">
         <v>71.146245059288532</v>
@@ -12561,7 +12564,7 @@
         <v>0.28853754940711462</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>151</v>
       </c>
@@ -12611,7 +12614,7 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="Q169" s="17">
-        <v>2.2599999999999998</v>
+        <v>22.599999999999998</v>
       </c>
       <c r="R169" s="17">
         <v>110</v>
@@ -12629,7 +12632,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>151</v>
       </c>
@@ -12679,7 +12682,7 @@
         <v>1.3620352250489234</v>
       </c>
       <c r="Q170" s="17">
-        <v>0.79452054794520555</v>
+        <v>7.9452054794520555</v>
       </c>
       <c r="R170" s="17">
         <v>68.493150684931507</v>
@@ -12697,7 +12700,7 @@
         <v>0.50880626223091974</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>151</v>
       </c>
@@ -12747,7 +12750,7 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="Q171" s="17">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="R171" s="17">
         <v>76</v>
@@ -12765,7 +12768,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>151</v>
       </c>
@@ -12815,7 +12818,7 @@
         <v>3.5019455252918288</v>
       </c>
       <c r="Q172" s="17">
-        <v>0.63229571984435806</v>
+        <v>6.3229571984435804</v>
       </c>
       <c r="R172" s="17">
         <v>73.929961089494157</v>
@@ -12833,7 +12836,7 @@
         <v>0.54669260700389111</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>151</v>
       </c>
@@ -12883,7 +12886,7 @@
         <v>3.2341269841269837</v>
       </c>
       <c r="Q173" s="17">
-        <v>0.68452380952380942</v>
+        <v>6.845238095238094</v>
       </c>
       <c r="R173" s="17">
         <v>91.269841269841265</v>
@@ -12901,7 +12904,7 @@
         <v>0.39087301587301593</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>151</v>
       </c>
@@ -12951,7 +12954,7 @@
         <v>0.17165668662674649</v>
       </c>
       <c r="Q174" s="17">
-        <v>0.92215568862275454</v>
+        <v>9.2215568862275461</v>
       </c>
       <c r="R174" s="17">
         <v>47.904191616766468</v>
@@ -12969,7 +12972,7 @@
         <v>0.81836327345309368</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>151</v>
       </c>
@@ -13019,7 +13022,7 @@
         <v>0.36276391554702492</v>
       </c>
       <c r="Q175" s="17">
-        <v>1.0230326295585412</v>
+        <v>10.230326295585412</v>
       </c>
       <c r="R175" s="17">
         <v>72.936660268714007</v>
@@ -13037,7 +13040,7 @@
         <v>0.40690978886756235</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>151</v>
       </c>
@@ -13087,7 +13090,7 @@
         <v>0.39920159680638723</v>
       </c>
       <c r="Q176" s="17">
-        <v>0.64471057884231542</v>
+        <v>6.447105788423154</v>
       </c>
       <c r="R176" s="17">
         <v>95.808383233532936</v>
@@ -13105,7 +13108,7 @@
         <v>0.42514970059880236</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>151</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>5.5407969639468693</v>
       </c>
       <c r="Q177" s="17">
-        <v>0.58633776091081602</v>
+        <v>5.8633776091081602</v>
       </c>
       <c r="R177" s="17">
         <v>117.64705882352941</v>
@@ -13173,7 +13176,7 @@
         <v>0.42314990512333961</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>151</v>
       </c>
@@ -13223,7 +13226,7 @@
         <v>0.57768924302788838</v>
       </c>
       <c r="Q178" s="17">
-        <v>0.41832669322709159</v>
+        <v>4.1832669322709162</v>
       </c>
       <c r="R178" s="17">
         <v>113.54581673306772</v>
@@ -13241,7 +13244,7 @@
         <v>0.30079681274900394</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>151</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>8.6885245901639312</v>
       </c>
       <c r="Q179" s="17">
-        <v>0.25865209471766842</v>
+        <v>2.5865209471766843</v>
       </c>
       <c r="R179" s="17">
         <v>147.54098360655738</v>
@@ -13309,7 +13312,7 @@
         <v>0.24408014571948997</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>151</v>
       </c>
@@ -13359,7 +13362,7 @@
         <v>0.36935166994106089</v>
       </c>
       <c r="Q180" s="17">
-        <v>1.0785854616895876</v>
+        <v>10.785854616895875</v>
       </c>
       <c r="R180" s="17">
         <v>88.408644400785846</v>
@@ -13377,7 +13380,7 @@
         <v>0.62082514734774064</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>151</v>
       </c>
@@ -13427,7 +13430,7 @@
         <v>0.19125683060109286</v>
       </c>
       <c r="Q181" s="17">
-        <v>0.65938069216757733</v>
+        <v>6.5938069216757729</v>
       </c>
       <c r="R181" s="17">
         <v>74.681238615664839</v>
@@ -13445,7 +13448,7 @@
         <v>0.38069216757741342</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>151</v>
       </c>
@@ -13495,7 +13498,7 @@
         <v>8.8318584070796486</v>
       </c>
       <c r="Q182" s="17">
-        <v>0.35929203539823018</v>
+        <v>3.5929203539823016</v>
       </c>
       <c r="R182" s="17">
         <v>81.415929203539832</v>
@@ -13513,7 +13516,7 @@
         <v>0.34690265486725669</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>151</v>
       </c>
@@ -13563,7 +13566,7 @@
         <v>5.4240631163708084</v>
       </c>
       <c r="Q183" s="17">
-        <v>8.2840236686390525E-2</v>
+        <v>0.82840236686390523</v>
       </c>
       <c r="R183" s="17">
         <v>39.447731755424059</v>
@@ -13577,7 +13580,7 @@
       </c>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>151</v>
       </c>
@@ -13627,7 +13630,7 @@
         <v>5.9854014598540131</v>
       </c>
       <c r="Q184" s="17">
-        <v>0.82481751824817517</v>
+        <v>8.2481751824817522</v>
       </c>
       <c r="R184" s="17">
         <v>52.919708029197075</v>
@@ -13645,7 +13648,7 @@
         <v>0.28649635036496346</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>151</v>
       </c>
@@ -13695,7 +13698,7 @@
         <v>2.1739130434782612</v>
       </c>
       <c r="Q185" s="17">
-        <v>1.8774703557312253</v>
+        <v>18.774703557312254</v>
       </c>
       <c r="R185" s="17">
         <v>67.193675889328077</v>
@@ -13713,7 +13716,7 @@
         <v>0.25494071146245062</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>151</v>
       </c>
@@ -13763,7 +13766,7 @@
         <v>0.57647058823529407</v>
       </c>
       <c r="Q186" s="17">
-        <v>1.0960784313725491</v>
+        <v>10.96078431372549</v>
       </c>
       <c r="R186" s="17">
         <v>84.313725490196077</v>
@@ -13781,7 +13784,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>151</v>
       </c>
@@ -13831,7 +13834,7 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="Q187" s="17">
-        <v>1.1120000000000001</v>
+        <v>11.120000000000001</v>
       </c>
       <c r="R187" s="17">
         <v>82</v>
@@ -13849,7 +13852,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>151</v>
       </c>
@@ -13899,7 +13902,7 @@
         <v>0.30560928433268864</v>
       </c>
       <c r="Q188" s="17">
-        <v>1.7949709864603483</v>
+        <v>17.949709864603484</v>
       </c>
       <c r="R188" s="17">
         <v>61.895551257253388</v>
@@ -13917,7 +13920,7 @@
         <v>0.49516441005802708</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>151</v>
       </c>
@@ -13967,7 +13970,7 @@
         <v>3.029126213592233</v>
       </c>
       <c r="Q189" s="17">
-        <v>0.50485436893203883</v>
+        <v>5.0485436893203879</v>
       </c>
       <c r="R189" s="17">
         <v>58.252427184466015</v>
@@ -13985,7 +13988,7 @@
         <v>0.32038834951456313</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>151</v>
       </c>
@@ -14035,7 +14038,7 @@
         <v>0.19629629629629627</v>
       </c>
       <c r="Q190" s="17">
-        <v>0.53888888888888875</v>
+        <v>5.3888888888888875</v>
       </c>
       <c r="R190" s="17">
         <v>49.999999999999993</v>
@@ -14053,7 +14056,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>151</v>
       </c>
@@ -14103,7 +14106,7 @@
         <v>0.28685258964143423</v>
       </c>
       <c r="Q191" s="17">
-        <v>1.0756972111553784</v>
+        <v>10.756972111553784</v>
       </c>
       <c r="R191" s="17">
         <v>75.697211155378483</v>
@@ -14121,7 +14124,7 @@
         <v>0.25896414342629481</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>151</v>
       </c>
@@ -14171,7 +14174,7 @@
         <v>5.6506849315068495</v>
       </c>
       <c r="Q192" s="17">
-        <v>0.31506849315068497</v>
+        <v>3.1506849315068495</v>
       </c>
       <c r="R192" s="17">
         <v>178.08219178082194</v>
@@ -14189,7 +14192,7 @@
         <v>0.34417808219178092</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>151</v>
       </c>
@@ -14239,7 +14242,7 @@
         <v>0.68932038834951448</v>
       </c>
       <c r="Q193" s="17">
-        <v>0.82524271844660191</v>
+        <v>8.2524271844660184</v>
       </c>
       <c r="R193" s="17">
         <v>351.45631067961165</v>
@@ -14257,7 +14260,7 @@
         <v>0.23300970873786406</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>151</v>
       </c>
@@ -14307,7 +14310,7 @@
         <v>6.1032028469750887</v>
       </c>
       <c r="Q194" s="17">
-        <v>0.17971530249110318</v>
+        <v>1.7971530249110317</v>
       </c>
       <c r="R194" s="17">
         <v>96.085409252669024</v>
@@ -14325,7 +14328,7 @@
         <v>0.18505338078291811</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>151</v>
       </c>
@@ -14375,7 +14378,7 @@
         <v>0.47977941176470584</v>
       </c>
       <c r="Q195" s="17">
-        <v>1.3143382352941173</v>
+        <v>13.143382352941174</v>
       </c>
       <c r="R195" s="17">
         <v>91.911764705882348</v>
@@ -14393,7 +14396,7 @@
         <v>0.45220588235294112</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>151</v>
       </c>
@@ -14443,7 +14446,7 @@
         <v>0.2730844793713163</v>
       </c>
       <c r="Q196" s="17">
-        <v>0.44204322200392931</v>
+        <v>4.4204322200392934</v>
       </c>
       <c r="R196" s="17">
         <v>58.939096267190571</v>
@@ -14461,7 +14464,7 @@
         <v>0.58742632612966594</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>151</v>
       </c>
@@ -14511,7 +14514,7 @@
         <v>9.3240556660039768</v>
       </c>
       <c r="Q197" s="17">
-        <v>1.0994035785288272</v>
+        <v>10.994035785288272</v>
       </c>
       <c r="R197" s="17">
         <v>61.630218687872762</v>
@@ -14529,7 +14532,7 @@
         <v>0.32405566600397617</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>151</v>
       </c>
@@ -14579,7 +14582,7 @@
         <v>1.0189035916824196</v>
       </c>
       <c r="Q198" s="17">
-        <v>7.5992438563327012</v>
+        <v>75.992438563327013</v>
       </c>
       <c r="R198" s="17">
         <v>75.614366729678636</v>
@@ -14597,7 +14600,7 @@
         <v>0.40075614366729673</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>151</v>
       </c>
@@ -14647,7 +14650,7 @@
         <v>6.103896103896103</v>
       </c>
       <c r="Q199" s="17">
-        <v>1.0890538033395176</v>
+        <v>10.890538033395176</v>
       </c>
       <c r="R199" s="17">
         <v>85.343228200371044</v>
@@ -14665,7 +14668,7 @@
         <v>0.57884972170686455</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>151</v>
       </c>
@@ -14715,7 +14718,7 @@
         <v>0.7052023121387283</v>
       </c>
       <c r="Q200" s="17">
-        <v>3.5067437379576107</v>
+        <v>35.067437379576106</v>
       </c>
       <c r="R200" s="17">
         <v>102.11946050096338</v>
@@ -14733,7 +14736,7 @@
         <v>0.46050096339113678</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>151</v>
       </c>
@@ -14783,7 +14786,7 @@
         <v>2.7788649706457922</v>
       </c>
       <c r="Q201" s="17">
-        <v>0.42074363992172209</v>
+        <v>4.2074363992172206</v>
       </c>
       <c r="R201" s="17">
         <v>74.36399217221134</v>
@@ -14801,7 +14804,7 @@
         <v>0.299412915851272</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>151</v>
       </c>
@@ -14851,7 +14854,7 @@
         <v>0.40858208955223879</v>
       </c>
       <c r="Q202" s="17">
-        <v>0.47388059701492541</v>
+        <v>4.7388059701492544</v>
       </c>
       <c r="R202" s="17">
         <v>63.432835820895527</v>
@@ -14869,7 +14872,7 @@
         <v>0.29664179104477612</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>151</v>
       </c>
@@ -14919,7 +14922,7 @@
         <v>0.22007722007722008</v>
       </c>
       <c r="Q203" s="17">
-        <v>0.80888030888030882</v>
+        <v>8.088803088803088</v>
       </c>
       <c r="R203" s="17">
         <v>61.776061776061773</v>
@@ -14937,7 +14940,7 @@
         <v>0.33976833976833976</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>151</v>
       </c>
@@ -14987,7 +14990,7 @@
         <v>6.4413518886679935</v>
       </c>
       <c r="Q204" s="17">
-        <v>0.49900596421471177</v>
+        <v>4.9900596421471182</v>
       </c>
       <c r="R204" s="17">
         <v>117.2962226640159</v>
@@ -15005,7 +15008,7 @@
         <v>0.2763419483101392</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>151</v>
       </c>
@@ -15055,7 +15058,7 @@
         <v>0.37811900191938574</v>
       </c>
       <c r="Q205" s="17">
-        <v>0.47792706333973128</v>
+        <v>4.7792706333973127</v>
       </c>
       <c r="R205" s="17">
         <v>57.581573896353163</v>
@@ -15073,7 +15076,7 @@
         <v>0.34165067178502873</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>151</v>
       </c>
@@ -15123,7 +15126,7 @@
         <v>9.6992481203007515</v>
       </c>
       <c r="Q206" s="17">
-        <v>0.39285714285714285</v>
+        <v>3.9285714285714284</v>
       </c>
       <c r="R206" s="17">
         <v>218.04511278195488</v>
@@ -15141,7 +15144,7 @@
         <v>0.16541353383458646</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>151</v>
       </c>
@@ -15191,7 +15194,7 @@
         <v>9.0625</v>
       </c>
       <c r="Q207" s="17">
-        <v>0.8515625</v>
+        <v>8.515625</v>
       </c>
       <c r="R207" s="17">
         <v>48.828125</v>
@@ -15209,7 +15212,7 @@
         <v>0.16015625</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>151</v>
       </c>
@@ -15259,7 +15262,7 @@
         <v>0.432</v>
       </c>
       <c r="Q208" s="17">
-        <v>1.3819999999999999</v>
+        <v>13.819999999999999</v>
       </c>
       <c r="R208" s="17">
         <v>108</v>
@@ -15277,7 +15280,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>151</v>
       </c>
@@ -15327,7 +15330,7 @@
         <v>4.8303393213572852</v>
       </c>
       <c r="Q209" s="17">
-        <v>1.001996007984032</v>
+        <v>10.01996007984032</v>
       </c>
       <c r="R209" s="17">
         <v>91.816367265469054</v>
@@ -15345,7 +15348,7 @@
         <v>0.31536926147704586</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>151</v>
       </c>
@@ -15395,7 +15398,7 @@
         <v>0.38</v>
       </c>
       <c r="Q210" s="17">
-        <v>0.65800000000000003</v>
+        <v>6.58</v>
       </c>
       <c r="R210" s="17">
         <v>126</v>
@@ -15413,7 +15416,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>151</v>
       </c>
@@ -15463,7 +15466,7 @@
         <v>7.6817288801571717</v>
       </c>
       <c r="Q211" s="17">
-        <v>1.337917485265226</v>
+        <v>13.379174852652261</v>
       </c>
       <c r="R211" s="17">
         <v>72.691552062868368</v>
@@ -15481,7 +15484,7 @@
         <v>0.45776031434184677</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>151</v>
       </c>
@@ -15531,7 +15534,7 @@
         <v>1.69</v>
       </c>
       <c r="Q212" s="17">
-        <v>0.47799999999999998</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="R212" s="17">
         <v>58</v>
@@ -15549,7 +15552,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>151</v>
       </c>
@@ -15599,7 +15602,7 @@
         <v>0.18127490039840638</v>
       </c>
       <c r="Q213" s="17">
-        <v>0.43824701195219118</v>
+        <v>4.382470119521912</v>
       </c>
       <c r="R213" s="17">
         <v>73.705179282868514</v>
@@ -15617,7 +15620,7 @@
         <v>0.72908366533864533</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>151</v>
       </c>
@@ -15667,7 +15670,7 @@
         <v>0.16932270916334663</v>
       </c>
       <c r="Q214" s="17">
-        <v>0.72509960159362552</v>
+        <v>7.2509960159362556</v>
       </c>
       <c r="R214" s="17">
         <v>47.808764940239044</v>
@@ -15685,7 +15688,7 @@
         <v>0.6394422310756972</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>151</v>
       </c>
@@ -15735,7 +15738,7 @@
         <v>0.31944444444444448</v>
       </c>
       <c r="Q215" s="17">
-        <v>0.92658730158730163</v>
+        <v>9.2658730158730158</v>
       </c>
       <c r="R215" s="17">
         <v>57.539682539682545</v>
@@ -15753,7 +15756,7 @@
         <v>0.34523809523809518</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>151</v>
       </c>
@@ -15803,7 +15806,7 @@
         <v>2.215568862275449</v>
       </c>
       <c r="Q216" s="17">
-        <v>0.50099800399201599</v>
+        <v>5.0099800399201602</v>
       </c>
       <c r="R216" s="17">
         <v>81.836327345309385</v>
@@ -15821,7 +15824,7 @@
         <v>0.42514970059880236</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>151</v>
       </c>
@@ -15871,7 +15874,7 @@
         <v>0.60912698412698407</v>
       </c>
       <c r="Q217" s="17">
-        <v>0.3928571428571429</v>
+        <v>3.9285714285714288</v>
       </c>
       <c r="R217" s="17">
         <v>128.96825396825398</v>
@@ -15889,7 +15892,7 @@
         <v>0.27777777777777785</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>151</v>
       </c>
@@ -15939,7 +15942,7 @@
         <v>7.112403100775194</v>
       </c>
       <c r="Q218" s="17">
-        <v>0.17441860465116277</v>
+        <v>1.7441860465116277</v>
       </c>
       <c r="R218" s="17">
         <v>106.5891472868217</v>
@@ -15957,7 +15960,7 @@
         <v>0.20348837209302326</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>151</v>
       </c>
@@ -16007,7 +16010,7 @@
         <v>0.24954462659380688</v>
       </c>
       <c r="Q219" s="17">
-        <v>1.0655737704918031</v>
+        <v>10.655737704918032</v>
       </c>
       <c r="R219" s="17">
         <v>80.145719489981772</v>
@@ -16025,7 +16028,7 @@
         <v>0.48998178506375223</v>
       </c>
     </row>
-    <row r="220" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>152</v>
       </c>
@@ -16075,7 +16078,7 @@
         <v>19.597069597069595</v>
       </c>
       <c r="Q220" s="17">
-        <v>0.55860805860805862</v>
+        <v>5.5860805860805858</v>
       </c>
       <c r="R220" s="17">
         <v>32.967032967032964</v>
@@ -16095,7 +16098,7 @@
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
     </row>
-    <row r="221" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>152</v>
       </c>
@@ -16145,7 +16148,7 @@
         <v>14.266144814090019</v>
       </c>
       <c r="Q221" s="17">
-        <v>0.26810176125244617</v>
+        <v>2.6810176125244616</v>
       </c>
       <c r="R221" s="17">
         <v>52.837573385518589</v>
@@ -16165,7 +16168,7 @@
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
     </row>
-    <row r="222" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>152</v>
       </c>
@@ -16215,7 +16218,7 @@
         <v>5.6710775047258979</v>
       </c>
       <c r="Q222" s="17">
-        <v>0.45746691871455575</v>
+        <v>4.5746691871455578</v>
       </c>
       <c r="R222" s="17">
         <v>71.833648393194693</v>
@@ -16235,7 +16238,7 @@
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
     </row>
-    <row r="223" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>152</v>
       </c>
@@ -16285,7 +16288,7 @@
         <v>0.4322709163346613</v>
       </c>
       <c r="Q223" s="17">
-        <v>1.057768924302789</v>
+        <v>10.577689243027891</v>
       </c>
       <c r="R223" s="17">
         <v>37.848605577689241</v>
@@ -16305,7 +16308,7 @@
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
     </row>
-    <row r="224" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>152</v>
       </c>
@@ -16355,7 +16358,7 @@
         <v>0.47619047619047616</v>
       </c>
       <c r="Q224" s="17">
-        <v>1.2114285714285713</v>
+        <v>12.114285714285714</v>
       </c>
       <c r="R224" s="17">
         <v>64.761904761904759</v>
@@ -16375,7 +16378,7 @@
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
     </row>
-    <row r="225" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>152</v>
       </c>
@@ -16425,7 +16428,7 @@
         <v>0.66088631984585744</v>
       </c>
       <c r="Q225" s="17">
-        <v>1.3545279383429671</v>
+        <v>13.545279383429671</v>
       </c>
       <c r="R225" s="17">
         <v>82.851637764932548</v>
@@ -16445,7 +16448,7 @@
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
     </row>
-    <row r="226" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>152</v>
       </c>
@@ -16495,7 +16498,7 @@
         <v>4.3761996161228396</v>
       </c>
       <c r="Q226" s="17">
-        <v>0.34740882917466404</v>
+        <v>3.4740882917466402</v>
       </c>
       <c r="R226" s="17">
         <v>34.548944337811896</v>
@@ -16515,7 +16518,7 @@
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
     </row>
-    <row r="227" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>152</v>
       </c>
@@ -16565,7 +16568,7 @@
         <v>3.6203866432337439</v>
       </c>
       <c r="Q227" s="17">
-        <v>0.71880492091388404</v>
+        <v>7.1880492091388408</v>
       </c>
       <c r="R227" s="17">
         <v>26.362038664323375</v>
@@ -16585,7 +16588,7 @@
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
     </row>
-    <row r="228" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>152</v>
       </c>
@@ -16635,7 +16638,7 @@
         <v>0.27220077220077216</v>
       </c>
       <c r="Q228" s="17">
-        <v>2.7992277992277992</v>
+        <v>27.992277992277991</v>
       </c>
       <c r="R228" s="17">
         <v>52.123552123552123</v>
@@ -16655,7 +16658,7 @@
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
     </row>
-    <row r="229" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>152</v>
       </c>
@@ -16705,7 +16708,7 @@
         <v>0.79232111692844687</v>
       </c>
       <c r="Q229" s="17">
-        <v>0.8638743455497383</v>
+        <v>8.6387434554973836</v>
       </c>
       <c r="R229" s="17">
         <v>61.082024432809781</v>
@@ -16725,7 +16728,7 @@
       <c r="Z229" s="9"/>
       <c r="AA229" s="9"/>
     </row>
-    <row r="230" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>152</v>
       </c>
@@ -16775,7 +16778,7 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="Q230" s="17">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="R230" s="17">
         <v>72</v>
@@ -16795,7 +16798,7 @@
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
     </row>
-    <row r="231" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>152</v>
       </c>
@@ -16845,7 +16848,7 @@
         <v>3.2633587786259541</v>
       </c>
       <c r="Q231" s="17">
-        <v>4.5801526717557248</v>
+        <v>45.801526717557252</v>
       </c>
       <c r="R231" s="17">
         <v>91.603053435114504</v>
@@ -16865,7 +16868,7 @@
       <c r="Z231" s="9"/>
       <c r="AA231" s="9"/>
     </row>
-    <row r="232" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>152</v>
       </c>
@@ -16915,7 +16918,7 @@
         <v>1.3977900552486187</v>
       </c>
       <c r="Q232" s="17">
-        <v>0.94106813996316763</v>
+        <v>9.4106813996316756</v>
       </c>
       <c r="R232" s="17">
         <v>112.33885819521178</v>
@@ -16935,7 +16938,7 @@
       <c r="Z232" s="9"/>
       <c r="AA232" s="9"/>
     </row>
-    <row r="233" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>152</v>
       </c>
@@ -16985,7 +16988,7 @@
         <v>0.44905008635578586</v>
       </c>
       <c r="Q233" s="17">
-        <v>1.525043177892919</v>
+        <v>15.25043177892919</v>
       </c>
       <c r="R233" s="17">
         <v>39.723661485319518</v>
@@ -17005,7 +17008,7 @@
       <c r="Z233" s="9"/>
       <c r="AA233" s="9"/>
     </row>
-    <row r="234" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>152</v>
       </c>
@@ -17055,7 +17058,7 @@
         <v>4.2359767891682782</v>
       </c>
       <c r="Q234" s="17">
-        <v>0.32495164410058025</v>
+        <v>3.2495164410058024</v>
       </c>
       <c r="R234" s="17">
         <v>46.421663442940037</v>
@@ -17075,7 +17078,7 @@
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
     </row>
-    <row r="235" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>152</v>
       </c>
@@ -17125,7 +17128,7 @@
         <v>6.6051660516605164</v>
       </c>
       <c r="Q235" s="17">
-        <v>0.27490774907749072</v>
+        <v>2.7490774907749072</v>
       </c>
       <c r="R235" s="17">
         <v>55.350553505535046</v>
@@ -17145,7 +17148,7 @@
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
     </row>
-    <row r="236" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>152</v>
       </c>
@@ -17195,7 +17198,7 @@
         <v>0.17054263565891473</v>
       </c>
       <c r="Q236" s="17">
-        <v>0.47868217054263568</v>
+        <v>4.7868217054263571</v>
       </c>
       <c r="R236" s="17">
         <v>40.697674418604656</v>
@@ -17215,7 +17218,7 @@
       <c r="Z236" s="9"/>
       <c r="AA236" s="9"/>
     </row>
-    <row r="237" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>152</v>
       </c>
@@ -17265,7 +17268,7 @@
         <v>13.882978723404257</v>
       </c>
       <c r="Q237" s="17">
-        <v>0.43439716312056742</v>
+        <v>4.3439716312056742</v>
       </c>
       <c r="R237" s="17">
         <v>39.007092198581567</v>
@@ -17285,7 +17288,7 @@
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
     </row>
-    <row r="238" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
         <v>152</v>
       </c>
@@ -17335,7 +17338,7 @@
         <v>12.862254025044724</v>
       </c>
       <c r="Q238" s="17">
-        <v>0.39177101967799638</v>
+        <v>3.9177101967799639</v>
       </c>
       <c r="R238" s="17">
         <v>51.878354203935601</v>
@@ -17355,7 +17358,7 @@
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
     </row>
-    <row r="239" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>152</v>
       </c>
@@ -17405,7 +17408,7 @@
         <v>14.07265774378585</v>
       </c>
       <c r="Q239" s="17">
-        <v>0.5200764818355641</v>
+        <v>5.2007648183556405</v>
       </c>
       <c r="R239" s="17">
         <v>76.48183556405354</v>
@@ -17425,7 +17428,7 @@
       <c r="Z239" s="9"/>
       <c r="AA239" s="9"/>
     </row>
-    <row r="240" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>152</v>
       </c>
@@ -17475,7 +17478,7 @@
         <v>1.1237721021611</v>
       </c>
       <c r="Q240" s="17">
-        <v>1.068762278978389</v>
+        <v>10.687622789783891</v>
       </c>
       <c r="R240" s="17">
         <v>47.151277013752456</v>
@@ -17495,7 +17498,7 @@
       <c r="Z240" s="9"/>
       <c r="AA240" s="9"/>
     </row>
-    <row r="241" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
         <v>152</v>
       </c>
@@ -17545,7 +17548,7 @@
         <v>0.47036328871892924</v>
       </c>
       <c r="Q241" s="17">
-        <v>0.88910133843212236</v>
+        <v>8.8910133843212229</v>
       </c>
       <c r="R241" s="17">
         <v>63.097514340344169</v>
@@ -17565,7 +17568,7 @@
       <c r="Z241" s="9"/>
       <c r="AA241" s="9"/>
     </row>
-    <row r="242" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>152</v>
       </c>
@@ -17615,7 +17618,7 @@
         <v>0.52694610778443107</v>
       </c>
       <c r="Q242" s="17">
-        <v>0.96806387225548896</v>
+        <v>9.6806387225548889</v>
       </c>
       <c r="R242" s="17">
         <v>57.884231536926151</v>
@@ -17635,7 +17638,7 @@
       <c r="Z242" s="9"/>
       <c r="AA242" s="9"/>
     </row>
-    <row r="243" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>152</v>
       </c>
@@ -17685,7 +17688,7 @@
         <v>0.80783582089552242</v>
       </c>
       <c r="Q243" s="17">
-        <v>0.68097014925373123</v>
+        <v>6.8097014925373127</v>
       </c>
       <c r="R243" s="17">
         <v>95.149253731343279</v>
@@ -17705,7 +17708,7 @@
       <c r="Z243" s="9"/>
       <c r="AA243" s="9"/>
     </row>
-    <row r="244" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A244" s="6" t="s">
         <v>152</v>
       </c>
@@ -17755,7 +17758,7 @@
         <v>6.4325323475046208</v>
       </c>
       <c r="Q244" s="17">
-        <v>0.41035120147874304</v>
+        <v>4.1035120147874302</v>
       </c>
       <c r="R244" s="17">
         <v>33.271719038817004</v>
@@ -17775,7 +17778,7 @@
       <c r="Z244" s="9"/>
       <c r="AA244" s="9"/>
     </row>
-    <row r="245" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>152</v>
       </c>
@@ -17825,7 +17828,7 @@
         <v>3.4953271028037385</v>
       </c>
       <c r="Q245" s="17">
-        <v>0.51401869158878499</v>
+        <v>5.1401869158878499</v>
       </c>
       <c r="R245" s="17">
         <v>28.037383177570092</v>
@@ -17845,7 +17848,7 @@
       <c r="Z245" s="9"/>
       <c r="AA245" s="9"/>
     </row>
-    <row r="246" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
         <v>152</v>
       </c>
@@ -17895,7 +17898,7 @@
         <v>1.6393762183235867</v>
       </c>
       <c r="Q246" s="17">
-        <v>1.3859649122807016</v>
+        <v>13.859649122807017</v>
       </c>
       <c r="R246" s="17">
         <v>118.9083820662768</v>
@@ -17915,7 +17918,7 @@
       <c r="Z246" s="9"/>
       <c r="AA246" s="9"/>
     </row>
-    <row r="247" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
         <v>152</v>
       </c>
@@ -17965,7 +17968,7 @@
         <v>0.38733705772811916</v>
       </c>
       <c r="Q247" s="17">
-        <v>0.99255121042830552</v>
+        <v>9.9255121042830545</v>
       </c>
       <c r="R247" s="17">
         <v>63.3147113594041</v>
@@ -17985,7 +17988,7 @@
       <c r="Z247" s="9"/>
       <c r="AA247" s="9"/>
     </row>
-    <row r="248" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A248" s="6" t="s">
         <v>152</v>
       </c>
@@ -18035,7 +18038,7 @@
         <v>11.284046692607005</v>
       </c>
       <c r="Q248" s="17">
-        <v>0.12645914396887159</v>
+        <v>1.2645914396887159</v>
       </c>
       <c r="R248" s="17">
         <v>35.019455252918284</v>
@@ -18055,7 +18058,7 @@
       <c r="Z248" s="9"/>
       <c r="AA248" s="9"/>
     </row>
-    <row r="249" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
         <v>152</v>
       </c>
@@ -18105,7 +18108,7 @@
         <v>6.7588932806324111</v>
       </c>
       <c r="Q249" s="17">
-        <v>0.49407114624505932</v>
+        <v>4.9407114624505937</v>
       </c>
       <c r="R249" s="17">
         <v>106.71936758893281</v>
@@ -18125,7 +18128,7 @@
       <c r="Z249" s="9"/>
       <c r="AA249" s="9"/>
     </row>
-    <row r="250" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
         <v>152</v>
       </c>
@@ -18175,7 +18178,7 @@
         <v>3.939393939393939</v>
       </c>
       <c r="Q250" s="17">
-        <v>0.74810606060606066</v>
+        <v>7.4810606060606064</v>
       </c>
       <c r="R250" s="17">
         <v>71.969696969696955</v>
@@ -18195,7 +18198,7 @@
       <c r="Z250" s="9"/>
       <c r="AA250" s="9"/>
     </row>
-    <row r="251" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
         <v>152</v>
       </c>
@@ -18245,7 +18248,7 @@
         <v>0.69639468690702089</v>
       </c>
       <c r="Q251" s="17">
-        <v>0.74003795066413658</v>
+        <v>7.4003795066413662</v>
       </c>
       <c r="R251" s="17">
         <v>30.360531309297912</v>
@@ -18265,7 +18268,7 @@
       <c r="Z251" s="9"/>
       <c r="AA251" s="9"/>
     </row>
-    <row r="252" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
         <v>152</v>
       </c>
@@ -18315,7 +18318,7 @@
         <v>2.2862823061630215</v>
       </c>
       <c r="Q252" s="17">
-        <v>0.1888667992047714</v>
+        <v>1.8886679920477141</v>
       </c>
       <c r="R252" s="17">
         <v>41.749502982107359</v>
@@ -18335,7 +18338,7 @@
       <c r="Z252" s="9"/>
       <c r="AA252" s="9"/>
     </row>
-    <row r="253" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
         <v>152</v>
       </c>
@@ -18385,7 +18388,7 @@
         <v>12.54</v>
       </c>
       <c r="Q253" s="17">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R253" s="17">
         <v>56</v>
@@ -18405,7 +18408,7 @@
       <c r="Z253" s="9"/>
       <c r="AA253" s="9"/>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
         <v>152</v>
       </c>
@@ -18455,7 +18458,7 @@
         <v>0.99203187250996006</v>
       </c>
       <c r="Q254" s="17">
-        <v>0.56772908366533847</v>
+        <v>5.677290836653385</v>
       </c>
       <c r="R254" s="17">
         <v>39.840637450199203</v>
@@ -18473,7 +18476,7 @@
         <v>0.19123505976095617</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>152</v>
       </c>
@@ -18523,7 +18526,7 @@
         <v>0.50782608695652176</v>
       </c>
       <c r="Q255" s="17">
-        <v>0.15478260869565216</v>
+        <v>1.5478260869565217</v>
       </c>
       <c r="R255" s="17">
         <v>46.956521739130437</v>
@@ -18541,7 +18544,7 @@
         <v>0.22782608695652176</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>152</v>
       </c>
@@ -18591,7 +18594,7 @@
         <v>19.723865877712029</v>
       </c>
       <c r="Q256" s="17">
-        <v>0.78895463510848129</v>
+        <v>7.8895463510848129</v>
       </c>
       <c r="R256" s="17">
         <v>37.475345167652854</v>
@@ -18609,7 +18612,7 @@
         <v>0.17554240631163706</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
         <v>152</v>
       </c>
@@ -18659,7 +18662,7 @@
         <v>4.9701789264413518</v>
       </c>
       <c r="Q257" s="17">
-        <v>0.19681908548707755</v>
+        <v>1.9681908548707754</v>
       </c>
       <c r="R257" s="17">
         <v>21.868787276341948</v>
@@ -18677,7 +18680,7 @@
         <v>0.1888667992047714</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
         <v>152</v>
       </c>
@@ -18727,7 +18730,7 @@
         <v>5.9805825242718447</v>
       </c>
       <c r="Q258" s="17">
-        <v>0.86407766990291257</v>
+        <v>8.640776699029125</v>
       </c>
       <c r="R258" s="17">
         <v>83.495145631067956</v>
@@ -18745,7 +18748,7 @@
         <v>0.42330097087378643</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
         <v>152</v>
       </c>
@@ -18795,7 +18798,7 @@
         <v>0.30902111324376197</v>
       </c>
       <c r="Q259" s="17">
-        <v>0.95969289827255277</v>
+        <v>9.5969289827255277</v>
       </c>
       <c r="R259" s="17">
         <v>53.742802303262955</v>
@@ -18813,7 +18816,7 @@
         <v>0.3800383877159309</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
         <v>152</v>
       </c>
@@ -18863,7 +18866,7 @@
         <v>0.61742424242424243</v>
       </c>
       <c r="Q260" s="17">
-        <v>1.3617424242424241</v>
+        <v>13.61742424242424</v>
       </c>
       <c r="R260" s="17">
         <v>77.651515151515142</v>
@@ -18881,7 +18884,7 @@
         <v>0.30113636363636365</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
         <v>152</v>
       </c>
@@ -18931,7 +18934,7 @@
         <v>1.3984526112185685</v>
       </c>
       <c r="Q261" s="17">
-        <v>1.5145067698259189</v>
+        <v>15.14506769825919</v>
       </c>
       <c r="R261" s="17">
         <v>87.040618955512571</v>
@@ -18949,7 +18952,7 @@
         <v>0.21276595744680851</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
         <v>152</v>
       </c>
@@ -18999,7 +19002,7 @@
         <v>1.6584440227703985</v>
       </c>
       <c r="Q262" s="17">
-        <v>0.90512333965844405</v>
+        <v>9.0512333965844398</v>
       </c>
       <c r="R262" s="17">
         <v>87.286527514231494</v>
@@ -19017,7 +19020,7 @@
         <v>0.2049335863377609</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
         <v>152</v>
       </c>
@@ -19067,7 +19070,7 @@
         <v>3.58</v>
       </c>
       <c r="Q263" s="17">
-        <v>0.32400000000000001</v>
+        <v>3.24</v>
       </c>
       <c r="R263" s="17">
         <v>32</v>
@@ -19085,7 +19088,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
         <v>152</v>
       </c>
@@ -19135,7 +19138,7 @@
         <v>5.8640776699029118</v>
       </c>
       <c r="Q264" s="17">
-        <v>0.57087378640776698</v>
+        <v>5.70873786407767</v>
       </c>
       <c r="R264" s="17">
         <v>46.601941747572816</v>
@@ -19153,7 +19156,7 @@
         <v>0.21359223300970873</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
         <v>152</v>
       </c>
@@ -19203,7 +19206,7 @@
         <v>2.2751322751322753</v>
       </c>
       <c r="Q265" s="17">
-        <v>0.70194003527336868</v>
+        <v>7.0194003527336868</v>
       </c>
       <c r="R265" s="17">
         <v>38.800705467372133</v>
@@ -19221,7 +19224,7 @@
         <v>0.25573192239858905</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
         <v>152</v>
       </c>
@@ -19271,7 +19274,7 @@
         <v>0.40631163708086782</v>
       </c>
       <c r="Q266" s="17">
-        <v>0.70611439842209067</v>
+        <v>7.0611439842209069</v>
       </c>
       <c r="R266" s="17">
         <v>39.447731755424059</v>
@@ -19289,7 +19292,7 @@
         <v>0.20512820512820512</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
         <v>152</v>
       </c>
@@ -19339,7 +19342,7 @@
         <v>0.31889763779527558</v>
       </c>
       <c r="Q267" s="17">
-        <v>0.40944881889763773</v>
+        <v>4.0944881889763778</v>
       </c>
       <c r="R267" s="17">
         <v>49.212598425196852</v>
@@ -19357,7 +19360,7 @@
         <v>0.21456692913385825</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
         <v>152</v>
       </c>
@@ -19407,7 +19410,7 @@
         <v>0.73477406679764246</v>
       </c>
       <c r="Q268" s="17">
-        <v>1.355599214145383</v>
+        <v>13.55599214145383</v>
       </c>
       <c r="R268" s="17">
         <v>43.222003929273086</v>
@@ -19425,7 +19428,7 @@
         <v>0.2475442043222004</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>152</v>
       </c>
@@ -19475,7 +19478,7 @@
         <v>22.053231939163496</v>
       </c>
       <c r="Q269" s="17">
-        <v>0.53231939163498099</v>
+        <v>5.3231939163498101</v>
       </c>
       <c r="R269" s="17">
         <v>58.935361216730037</v>
@@ -19493,7 +19496,7 @@
         <v>0.49619771863117867</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
         <v>152</v>
       </c>
@@ -19543,7 +19546,7 @@
         <v>4.8044692737430168</v>
       </c>
       <c r="Q270" s="17">
-        <v>0.56424581005586594</v>
+        <v>5.6424581005586596</v>
       </c>
       <c r="R270" s="17">
         <v>169.45996275605214</v>
@@ -19561,7 +19564,7 @@
         <v>0.20297951582867785</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>152</v>
       </c>
@@ -19611,7 +19614,7 @@
         <v>1.7831094049904033</v>
       </c>
       <c r="Q271" s="17">
-        <v>0.38963531669865642</v>
+        <v>3.8963531669865641</v>
       </c>
       <c r="R271" s="17">
         <v>101.72744721689058</v>
@@ -19629,7 +19632,7 @@
         <v>0.1785028790786948</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>152</v>
       </c>
@@ -19679,7 +19682,7 @@
         <v>1.4657039711191335</v>
       </c>
       <c r="Q272" s="17">
-        <v>0.14620938628158842</v>
+        <v>1.4620938628158842</v>
       </c>
       <c r="R272" s="17">
         <v>23.46570397111913</v>
@@ -19697,7 +19700,7 @@
         <v>0.15342960288808663</v>
       </c>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
         <v>152</v>
       </c>
@@ -19747,7 +19750,7 @@
         <v>5.8362369337979096</v>
       </c>
       <c r="Q273" s="17">
-        <v>0.2073170731707317</v>
+        <v>2.0731707317073171</v>
       </c>
       <c r="R273" s="17">
         <v>34.843205574912893</v>
@@ -19765,7 +19768,7 @@
         <v>0.16202090592334498</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
         <v>152</v>
       </c>
@@ -19815,7 +19818,7 @@
         <v>11.650485436893202</v>
       </c>
       <c r="Q274" s="17">
-        <v>1.029126213592233</v>
+        <v>10.291262135922331</v>
       </c>
       <c r="R274" s="17">
         <v>85.436893203883486</v>
@@ -19833,7 +19836,7 @@
         <v>0.34757281553398051</v>
       </c>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>152</v>
       </c>
@@ -19883,7 +19886,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="Q275" s="17">
-        <v>0.76400000000000001</v>
+        <v>7.6400000000000006</v>
       </c>
       <c r="R275" s="17">
         <v>94</v>
@@ -19901,7 +19904,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
         <v>152</v>
       </c>
@@ -19951,7 +19954,7 @@
         <v>0.35856573705179279</v>
       </c>
       <c r="Q276" s="17">
-        <v>1.1374501992031871</v>
+        <v>11.37450199203187</v>
       </c>
       <c r="R276" s="17">
         <v>71.713147410358559</v>
@@ -19969,7 +19972,7 @@
         <v>0.4322709163346613</v>
       </c>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
         <v>152</v>
       </c>
@@ -20019,7 +20022,7 @@
         <v>2.68</v>
       </c>
       <c r="Q277" s="17">
-        <v>1.3260000000000001</v>
+        <v>13.260000000000002</v>
       </c>
       <c r="R277" s="17">
         <v>164</v>
@@ -20037,7 +20040,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>152</v>
       </c>
@@ -20087,7 +20090,7 @@
         <v>0.69158878504672894</v>
       </c>
       <c r="Q278" s="17">
-        <v>0.84859813084112146</v>
+        <v>8.4859813084112155</v>
       </c>
       <c r="R278" s="17">
         <v>112.14953271028037</v>
@@ -20105,7 +20108,7 @@
         <v>0.37943925233644865</v>
       </c>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
         <v>152</v>
       </c>
@@ -20155,7 +20158,7 @@
         <v>4.2115768463073842</v>
       </c>
       <c r="Q279" s="17">
-        <v>0.29341317365269459</v>
+        <v>2.9341317365269459</v>
       </c>
       <c r="R279" s="17">
         <v>69.860279441117768</v>
@@ -20173,7 +20176,7 @@
         <v>0.25349301397205587</v>
       </c>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
         <v>152</v>
       </c>
@@ -20223,7 +20226,7 @@
         <v>3.66</v>
       </c>
       <c r="Q280" s="17">
-        <v>0.40200000000000002</v>
+        <v>4.0200000000000005</v>
       </c>
       <c r="R280" s="17">
         <v>72</v>
@@ -20241,7 +20244,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
         <v>152</v>
       </c>
@@ -20291,7 +20294,7 @@
         <v>2.8571428571428568</v>
       </c>
       <c r="Q281" s="17">
-        <v>0.67318982387475523</v>
+        <v>6.7318982387475526</v>
       </c>
       <c r="R281" s="17">
         <v>58.708414872798429</v>
@@ -20309,7 +20312,7 @@
         <v>0.30528375733855184</v>
       </c>
     </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
         <v>152</v>
       </c>
@@ -20359,7 +20362,7 @@
         <v>0.34593572778827975</v>
       </c>
       <c r="Q282" s="17">
-        <v>0.75047258979206044</v>
+        <v>7.5047258979206042</v>
       </c>
       <c r="R282" s="17">
         <v>81.285444234404522</v>
@@ -20377,7 +20380,7 @@
         <v>0.15311909262759923</v>
       </c>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
         <v>152</v>
       </c>
@@ -20427,7 +20430,7 @@
         <v>0.29249011857707513</v>
       </c>
       <c r="Q283" s="17">
-        <v>0.26284584980237158</v>
+        <v>2.6284584980237158</v>
       </c>
       <c r="R283" s="17">
         <v>71.146245059288532</v>
@@ -20445,7 +20448,7 @@
         <v>0.31818181818181818</v>
       </c>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>152</v>
       </c>
@@ -20495,7 +20498,7 @@
         <v>17.86692759295499</v>
       </c>
       <c r="Q284" s="17">
-        <v>0.17221135029354204</v>
+        <v>1.7221135029354204</v>
       </c>
       <c r="R284" s="17">
         <v>64.579256360078276</v>
@@ -20513,7 +20516,7 @@
         <v>0.2446183953033268</v>
       </c>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
         <v>152</v>
       </c>
@@ -20563,7 +20566,7 @@
         <v>0.218</v>
       </c>
       <c r="Q285" s="17">
-        <v>0.72599999999999998</v>
+        <v>7.26</v>
       </c>
       <c r="R285" s="17">
         <v>76</v>
@@ -20581,7 +20584,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>152</v>
       </c>
@@ -20631,7 +20634,7 @@
         <v>0.43478260869565216</v>
       </c>
       <c r="Q286" s="17">
-        <v>0.80830039525691699</v>
+        <v>8.0830039525691699</v>
       </c>
       <c r="R286" s="17">
         <v>128.45849802371544</v>
@@ -20649,7 +20652,7 @@
         <v>0.28260869565217389</v>
       </c>
     </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>152</v>
       </c>
@@ -20699,7 +20702,7 @@
         <v>18.904382470119522</v>
       </c>
       <c r="Q287" s="17">
-        <v>0.69123505976095612</v>
+        <v>6.9123505976095609</v>
       </c>
       <c r="R287" s="17">
         <v>37.848605577689241</v>
@@ -20717,7 +20720,7 @@
         <v>0.17529880478087648</v>
       </c>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
         <v>152</v>
       </c>
@@ -20767,7 +20770,7 @@
         <v>21.188118811881186</v>
       </c>
       <c r="Q288" s="17">
-        <v>0.30099009900990098</v>
+        <v>3.0099009900990099</v>
       </c>
       <c r="R288" s="17">
         <v>71.287128712871279</v>
@@ -20785,7 +20788,7 @@
         <v>0.18217821782178217</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>152</v>
       </c>
@@ -20835,7 +20838,7 @@
         <v>7.6047904191616764</v>
       </c>
       <c r="Q289" s="17">
-        <v>0.91217564870259482</v>
+        <v>9.121756487025948</v>
       </c>
       <c r="R289" s="17">
         <v>79.840319361277452</v>
@@ -20853,7 +20856,7 @@
         <v>0.30938123752495011</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>152</v>
       </c>
@@ -20903,7 +20906,7 @@
         <v>0.2390438247011952</v>
       </c>
       <c r="Q290" s="17">
-        <v>0.9561752988047808</v>
+        <v>9.5617529880478074</v>
       </c>
       <c r="R290" s="17">
         <v>55.776892430278885</v>
@@ -20921,7 +20924,7 @@
         <v>0.31075697211155373</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
         <v>152</v>
       </c>
@@ -20971,7 +20974,7 @@
         <v>0.5145631067961165</v>
       </c>
       <c r="Q291" s="17">
-        <v>0.76116504854368927</v>
+        <v>7.6116504854368925</v>
       </c>
       <c r="R291" s="17">
         <v>139.80582524271844</v>
@@ -20989,7 +20992,7 @@
         <v>0.2174757281553398</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
         <v>152</v>
       </c>
@@ -21039,7 +21042,7 @@
         <v>0.53137254901960784</v>
       </c>
       <c r="Q292" s="17">
-        <v>0.71372549019607845</v>
+        <v>7.1372549019607847</v>
       </c>
       <c r="R292" s="17">
         <v>62.745098039215684</v>
@@ -21057,7 +21060,7 @@
         <v>0.25098039215686274</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
         <v>152</v>
       </c>
@@ -21107,7 +21110,7 @@
         <v>3.49802371541502</v>
       </c>
       <c r="Q293" s="17">
-        <v>0.30039525691699603</v>
+        <v>3.0039525691699605</v>
       </c>
       <c r="R293" s="17">
         <v>61.264822134387352</v>
@@ -21125,7 +21128,7 @@
         <v>0.2075098814229249</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
         <v>152</v>
       </c>
@@ -21175,7 +21178,7 @@
         <v>3.7087378640776696</v>
       </c>
       <c r="Q294" s="17">
-        <v>0.45242718446601943</v>
+        <v>4.5242718446601939</v>
       </c>
       <c r="R294" s="17">
         <v>48.543689320388353</v>
@@ -21193,7 +21196,7 @@
         <v>0.2466019417475728</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
         <v>152</v>
       </c>
@@ -21243,7 +21246,7 @@
         <v>3.1818181818181821</v>
       </c>
       <c r="Q295" s="17">
-        <v>0.3458498023715415</v>
+        <v>3.458498023715415</v>
       </c>
       <c r="R295" s="17">
         <v>73.122529644268781</v>
@@ -21261,7 +21264,7 @@
         <v>0.28853754940711462</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>152</v>
       </c>
@@ -21311,7 +21314,7 @@
         <v>0.18058252427184465</v>
       </c>
       <c r="Q296" s="17">
-        <v>0.48737864077669901</v>
+        <v>4.8737864077669899</v>
       </c>
       <c r="R296" s="17">
         <v>69.902912621359221</v>
@@ -21329,7 +21332,7 @@
         <v>0.23883495145631067</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
         <v>152</v>
       </c>
@@ -21379,7 +21382,7 @@
         <v>0.18271119842829078</v>
       </c>
       <c r="Q297" s="17">
-        <v>1.2750491159135562</v>
+        <v>12.750491159135562</v>
       </c>
       <c r="R297" s="17">
         <v>70.72691552062868</v>
@@ -21397,7 +21400,7 @@
         <v>0.22986247544204325</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
         <v>152</v>
       </c>
@@ -21447,7 +21450,7 @@
         <v>0.5355731225296444</v>
       </c>
       <c r="Q298" s="17">
-        <v>0.75889328063241113</v>
+        <v>7.5889328063241113</v>
       </c>
       <c r="R298" s="17">
         <v>98.814229249011873</v>
@@ -21465,7 +21468,7 @@
         <v>0.20948616600790515</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
         <v>152</v>
       </c>
@@ -21515,7 +21518,7 @@
         <v>0.27924528301886792</v>
       </c>
       <c r="Q299" s="17">
-        <v>0.76981132075471681</v>
+        <v>7.6981132075471681</v>
       </c>
       <c r="R299" s="17">
         <v>92.452830188679243</v>
@@ -21533,7 +21536,7 @@
         <v>0.32452830188679238</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
         <v>152</v>
       </c>
@@ -21583,7 +21586,7 @@
         <v>5.0472589792060489</v>
       </c>
       <c r="Q300" s="17">
-        <v>2.9300567107750473</v>
+        <v>29.300567107750474</v>
       </c>
       <c r="R300" s="17">
         <v>54.820415879017013</v>
@@ -21601,11 +21604,11 @@
         <v>0.2816635160680529</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" ht="0.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N301" s="3"/>
       <c r="P301" s="5"/>
     </row>
-    <row r="302" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -21622,7 +21625,7 @@
       <c r="Z302" s="9"/>
       <c r="AA302" s="9"/>
     </row>
-    <row r="303" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -21639,7 +21642,7 @@
       <c r="Z303" s="9"/>
       <c r="AA303" s="9"/>
     </row>
-    <row r="304" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -21657,7 +21660,7 @@
       <c r="Z304" s="9"/>
       <c r="AA304" s="9"/>
     </row>
-    <row r="305" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -21675,7 +21678,7 @@
       <c r="Z305" s="9"/>
       <c r="AA305" s="9"/>
     </row>
-    <row r="306" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -21693,7 +21696,7 @@
       <c r="Z306" s="9"/>
       <c r="AA306" s="9"/>
     </row>
-    <row r="307" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -21711,7 +21714,7 @@
       <c r="Z307" s="9"/>
       <c r="AA307" s="9"/>
     </row>
-    <row r="308" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -21728,7 +21731,7 @@
       <c r="Z308" s="9"/>
       <c r="AA308" s="9"/>
     </row>
-    <row r="309" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="L309" s="7"/>
       <c r="N309" s="4"/>
       <c r="O309" s="4"/>
@@ -21742,7 +21745,7 @@
       <c r="Z309" s="9"/>
       <c r="AA309" s="9"/>
     </row>
-    <row r="310" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="L310" s="7"/>
       <c r="N310" s="4"/>
       <c r="O310" s="4"/>
@@ -21756,7 +21759,7 @@
       <c r="Z310" s="9"/>
       <c r="AA310" s="9"/>
     </row>
-    <row r="311" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="L311" s="7"/>
       <c r="N311" s="4"/>
       <c r="O311" s="4"/>
@@ -21770,7 +21773,7 @@
       <c r="Z311" s="9"/>
       <c r="AA311" s="9"/>
     </row>
-    <row r="312" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="L312" s="7"/>
       <c r="N312" s="4"/>
       <c r="O312" s="4"/>
@@ -21784,7 +21787,7 @@
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
     </row>
-    <row r="313" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="L313" s="7"/>
       <c r="N313" s="4"/>
       <c r="O313" s="4"/>
@@ -21798,7 +21801,7 @@
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
     </row>
-    <row r="314" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -21816,7 +21819,7 @@
       <c r="Z314" s="9"/>
       <c r="AA314" s="9"/>
     </row>
-    <row r="315" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -21836,7 +21839,7 @@
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
     </row>
-    <row r="316" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -21856,7 +21859,7 @@
       <c r="Z316" s="9"/>
       <c r="AA316" s="9"/>
     </row>
-    <row r="317" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -21876,7 +21879,7 @@
       <c r="Z317" s="9"/>
       <c r="AA317" s="9"/>
     </row>
-    <row r="318" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -21896,7 +21899,7 @@
       <c r="Z318" s="9"/>
       <c r="AA318" s="9"/>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.4">
       <c r="Q319" s="4"/>
       <c r="R319" s="4"/>
       <c r="S319" s="4"/>
@@ -21904,7 +21907,7 @@
       <c r="U319" s="1"/>
       <c r="V319" s="1"/>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.4">
       <c r="Q320" s="4"/>
       <c r="R320" s="4"/>
       <c r="S320" s="4"/>
@@ -21912,7 +21915,7 @@
       <c r="U320" s="4"/>
       <c r="V320" s="4"/>
     </row>
-    <row r="321" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="321" spans="17:22" x14ac:dyDescent="0.4">
       <c r="Q321" s="4"/>
       <c r="R321" s="4"/>
       <c r="S321" s="4"/>
@@ -21920,7 +21923,7 @@
       <c r="U321" s="4"/>
       <c r="V321" s="4"/>
     </row>
-    <row r="322" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="322" spans="17:22" x14ac:dyDescent="0.4">
       <c r="Q322" s="4"/>
       <c r="R322" s="4"/>
       <c r="S322" s="4"/>
@@ -21928,7 +21931,7 @@
       <c r="U322" s="4"/>
       <c r="V322" s="4"/>
     </row>
-    <row r="323" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="323" spans="17:22" x14ac:dyDescent="0.4">
       <c r="Q323" s="4"/>
       <c r="R323" s="4"/>
       <c r="S323" s="4"/>
@@ -21936,7 +21939,7 @@
       <c r="U323" s="4"/>
       <c r="V323" s="4"/>
     </row>
-    <row r="324" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="324" spans="17:22" x14ac:dyDescent="0.4">
       <c r="Q324" s="4"/>
       <c r="R324" s="4"/>
       <c r="S324" s="4"/>
@@ -21944,46 +21947,47 @@
       <c r="U324" s="4"/>
       <c r="V324" s="4"/>
     </row>
-    <row r="364" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="364" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="365" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="366" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="367" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="368" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="369" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z370" s="2"/>
     </row>
-    <row r="375" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="375" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="376" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="377" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="378" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="379" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="380" spans="26:26" x14ac:dyDescent="0.4">
       <c r="Z380" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA380" xr:uid="{F26FE2DF-3E66-4DD0-9DD4-11F4F1323DA7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V302">
     <sortCondition ref="A3:A302"/>
     <sortCondition ref="B3:B302"/>
